--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>-0.1945316142291066</v>
       </c>
-      <c r="BA2">
-        <v>-0.1945316142291066</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>0.01036281805721223</v>
       </c>
-      <c r="BA3">
-        <v>0.01036281805721223</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>-0.04457422898017915</v>
-      </c>
       <c r="C4">
         <v>0.5511400986501143</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>0.5511400986501143</v>
       </c>
-      <c r="BA4">
-        <v>0.5511400986501143</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>-0.05080439817647642</v>
-      </c>
       <c r="C5">
         <v>-0.00954355574783676</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>-0.00954355574783676</v>
       </c>
-      <c r="BA5">
-        <v>-0.00954355574783676</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>-0.06052901654273318</v>
-      </c>
-      <c r="C6">
-        <v>0.2919478052601759</v>
-      </c>
       <c r="D6">
         <v>-0.2555446171936915</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>-0.2555446171936915</v>
       </c>
-      <c r="BA6">
-        <v>-0.2555446171936915</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>0.1543254109646204</v>
-      </c>
       <c r="D7">
         <v>-0.6066619314321233</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>-0.6066619314321233</v>
       </c>
-      <c r="BA7">
-        <v>-0.6066619314321233</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>0.06950680785193752</v>
-      </c>
-      <c r="D8">
-        <v>-0.4447492365997521</v>
-      </c>
       <c r="E8">
         <v>-0.2442342285147824</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>-0.2442342285147824</v>
       </c>
-      <c r="BA8">
-        <v>-0.2442342285147824</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>-0.0509953789204512</v>
-      </c>
-      <c r="D9">
-        <v>-0.3230553737681023</v>
-      </c>
       <c r="E9">
         <v>0.02800526388762647</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>0.02800526388762647</v>
       </c>
-      <c r="BA9">
-        <v>0.02800526388762647</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>-0.1549158603858515</v>
-      </c>
-      <c r="D10">
-        <v>-0.3568897768025528</v>
-      </c>
-      <c r="E10">
-        <v>0.006588265617235273</v>
-      </c>
       <c r="F10">
         <v>0.2989632083880984</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>0.2989632083880984</v>
       </c>
-      <c r="BA10">
-        <v>0.2989632083880984</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>0.2521091643906127</v>
-      </c>
-      <c r="D11">
-        <v>-0.2871014598618005</v>
-      </c>
-      <c r="E11">
-        <v>-0.05097382177085291</v>
-      </c>
       <c r="F11">
         <v>0.1898416505639596</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>0.1898416505639596</v>
       </c>
-      <c r="BA11">
-        <v>0.1898416505639596</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>0.1507432298496142</v>
-      </c>
-      <c r="D12">
-        <v>-0.2293890982437078</v>
-      </c>
-      <c r="E12">
-        <v>0.01754894364723292</v>
-      </c>
-      <c r="F12">
-        <v>0.1568486727439599</v>
-      </c>
       <c r="G12">
         <v>1.064747157129269</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>1.064747157129269</v>
       </c>
-      <c r="BA12">
-        <v>1.064747157129269</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>0.09184121390869501</v>
-      </c>
-      <c r="D13">
-        <v>-0.211478046004883</v>
-      </c>
-      <c r="E13">
-        <v>0.1254679695395859</v>
-      </c>
-      <c r="F13">
-        <v>0.1263123640092446</v>
-      </c>
       <c r="G13">
         <v>0.4880328864343323</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>0.4880328864343323</v>
       </c>
-      <c r="BA13">
-        <v>0.4880328864343323</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>0.132209191625548</v>
-      </c>
-      <c r="D14">
-        <v>-0.2169140727984085</v>
-      </c>
-      <c r="E14">
-        <v>0.1134223377380077</v>
-      </c>
-      <c r="F14">
-        <v>0.1057032405672295</v>
-      </c>
-      <c r="G14">
-        <v>0.02088116545797869</v>
-      </c>
       <c r="H14">
         <v>-0.007236080745368856</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>-0.007236080745368856</v>
       </c>
-      <c r="BA14">
-        <v>-0.007236080745368856</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>0.1328844387364617</v>
-      </c>
-      <c r="D15">
-        <v>-0.2260678426367442</v>
-      </c>
-      <c r="E15">
-        <v>-0.03891917439708863</v>
-      </c>
-      <c r="F15">
-        <v>0.02461487439784158</v>
-      </c>
-      <c r="G15">
-        <v>0.1759178937024192</v>
-      </c>
       <c r="H15">
         <v>0.02799058711211094</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0.02799058711211094</v>
       </c>
-      <c r="BA15">
-        <v>0.02799058711211094</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>0.1237660675117505</v>
-      </c>
-      <c r="D16">
-        <v>-0.2306265679922583</v>
-      </c>
-      <c r="E16">
-        <v>-0.1149169433589676</v>
-      </c>
-      <c r="F16">
-        <v>-0.01725612576727171</v>
-      </c>
-      <c r="G16">
-        <v>0.1652132346915069</v>
-      </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
       <c r="I16">
         <v>0.3</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>0.3</v>
       </c>
-      <c r="BA16">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>0.1264018157350426</v>
-      </c>
-      <c r="D17">
-        <v>-0.2309309779398765</v>
-      </c>
-      <c r="E17">
-        <v>-0.08395959015395253</v>
-      </c>
-      <c r="F17">
-        <v>-0.007779305325806193</v>
-      </c>
-      <c r="G17">
-        <v>0.1198349834155632</v>
-      </c>
-      <c r="H17">
-        <v>0.02053778061749256</v>
-      </c>
       <c r="I17">
         <v>0.05221426964547216</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>0.05221426964547216</v>
       </c>
-      <c r="BA17">
-        <v>0.05221426964547216</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>0.1276099238634106</v>
-      </c>
-      <c r="D18">
-        <v>-0.2297474985885216</v>
-      </c>
-      <c r="E18">
-        <v>-0.03159640725643963</v>
-      </c>
-      <c r="F18">
-        <v>0.01666063930919896</v>
-      </c>
-      <c r="G18">
-        <v>0.1402734837222156</v>
-      </c>
-      <c r="H18">
-        <v>0.1</v>
-      </c>
-      <c r="I18">
-        <v>0.06398694658965987</v>
-      </c>
       <c r="J18">
         <v>-0.3</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>-0.3</v>
       </c>
-      <c r="BA18">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>0.1266590567584491</v>
-      </c>
-      <c r="D19">
-        <v>-0.2288509471795188</v>
-      </c>
-      <c r="E19">
-        <v>-0.01809544154709977</v>
-      </c>
-      <c r="F19">
-        <v>0.02783912269218652</v>
-      </c>
-      <c r="G19">
-        <v>0.1439743253552604</v>
-      </c>
-      <c r="H19">
-        <v>0.127635114133456</v>
-      </c>
-      <c r="I19">
-        <v>0.1</v>
-      </c>
       <c r="J19">
         <v>-0.3</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>-0.3</v>
       </c>
-      <c r="BA19">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>0.1266827420328807</v>
-      </c>
-      <c r="D20">
-        <v>-0.2286029934002059</v>
-      </c>
-      <c r="E20">
-        <v>-0.03550210517223473</v>
-      </c>
-      <c r="F20">
-        <v>0.0240768255859628</v>
-      </c>
-      <c r="G20">
-        <v>0.1421383758747184</v>
-      </c>
-      <c r="H20">
-        <v>0.1244595042598601</v>
-      </c>
-      <c r="I20">
-        <v>0.02507719589523449</v>
-      </c>
-      <c r="J20">
-        <v>-0.2</v>
-      </c>
       <c r="K20">
         <v>-0.4</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>-0.4</v>
       </c>
-      <c r="BA20">
-        <v>-0.4</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.05118753549079569</v>
-      </c>
-      <c r="F21">
-        <v>0.01677746261416108</v>
-      </c>
-      <c r="G21">
-        <v>0.1405556521596131</v>
-      </c>
-      <c r="H21">
-        <v>0.1167285482113882</v>
-      </c>
-      <c r="I21">
-        <v>0.0589879961961709</v>
-      </c>
-      <c r="J21">
-        <v>0.01279511133247557</v>
-      </c>
       <c r="K21">
         <v>-0.2</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>-0.2</v>
       </c>
-      <c r="BA21">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.05140386866456985</v>
-      </c>
-      <c r="F22">
-        <v>0.01385020895212508</v>
-      </c>
-      <c r="G22">
-        <v>0.1400968014030251</v>
-      </c>
-      <c r="H22">
-        <v>0.1134212624437324</v>
-      </c>
-      <c r="I22">
-        <v>0.03586850329953273</v>
-      </c>
-      <c r="J22">
-        <v>0.002774356509152032</v>
-      </c>
       <c r="K22">
-        <v>-0.1</v>
+        <v>-0.01011154467147522</v>
       </c>
       <c r="L22">
         <v>-0.4</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>-0.4</v>
       </c>
-      <c r="BA22">
-        <v>-0.4</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.04413764148268549</v>
-      </c>
-      <c r="F23">
-        <v>0.01523244616654142</v>
-      </c>
-      <c r="G23">
-        <v>0.1401530314667659</v>
-      </c>
-      <c r="H23">
-        <v>0.1134096124980121</v>
-      </c>
-      <c r="I23">
-        <v>0.08441011425683437</v>
-      </c>
-      <c r="J23">
-        <v>0.03414311873459237</v>
-      </c>
       <c r="K23">
-        <v>-0.2</v>
+        <v>0.06008884268979041</v>
       </c>
       <c r="L23">
         <v>0.1</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.1</v>
       </c>
-      <c r="BA23">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.04014056189685834</v>
-      </c>
-      <c r="F24">
-        <v>0.01739344509933958</v>
-      </c>
-      <c r="G24">
-        <v>0.1402637538095517</v>
-      </c>
-      <c r="H24">
-        <v>0.1141318334850777</v>
-      </c>
-      <c r="I24">
-        <v>0.113319700222876</v>
-      </c>
-      <c r="J24">
-        <v>0.05458177631841984</v>
-      </c>
       <c r="K24">
-        <v>-0.09999999999999998</v>
+        <v>0.06004926127989707</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1382617130420757</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>0</v>
       </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.1403088627835628</v>
-      </c>
-      <c r="H25">
-        <v>0.1145086880845482</v>
-      </c>
-      <c r="I25">
-        <v>0.1173233049258897</v>
-      </c>
-      <c r="J25">
-        <v>0.05872986889223485</v>
-      </c>
       <c r="K25">
-        <v>0.007919166537585065</v>
+        <v>0.0442886639654108</v>
       </c>
       <c r="L25">
-        <v>-0.008748979543006241</v>
+        <v>0.07652120042350044</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>0</v>
       </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.1403114194456201</v>
-      </c>
-      <c r="H26">
-        <v>0.1145449602821191</v>
-      </c>
-      <c r="I26">
-        <v>0.1131726418519371</v>
-      </c>
-      <c r="J26">
-        <v>0.05616712384208132</v>
-      </c>
       <c r="K26">
-        <v>-0.001142224879497111</v>
+        <v>0.03474981791076311</v>
       </c>
       <c r="L26">
-        <v>-0.05454827038232091</v>
+        <v>0.03514211404667272</v>
       </c>
       <c r="M26">
-        <v>-0.09999999999999998</v>
+        <v>0.008699433161793845</v>
       </c>
       <c r="N26">
         <v>0.2000000000000001</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>0.2000000000000001</v>
       </c>
-      <c r="BA26">
-        <v>0.2000000000000001</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.1403045678971885</v>
-      </c>
-      <c r="H27">
-        <v>0.1144807755379729</v>
-      </c>
-      <c r="I27">
-        <v>0.1102708661160279</v>
-      </c>
-      <c r="J27">
-        <v>0.05369182580115351</v>
-      </c>
       <c r="K27">
-        <v>0.003099159766400333</v>
+        <v>0.03250422359785402</v>
       </c>
       <c r="L27">
-        <v>-0.02303774877941694</v>
+        <v>0.02198988971902638</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.01348243169762427</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>0</v>
       </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.1403006890187913</v>
-      </c>
-      <c r="H28">
-        <v>0.1144395248731133</v>
-      </c>
-      <c r="I28">
-        <v>0.1097159691676719</v>
-      </c>
-      <c r="J28">
-        <v>0.0528903522141464</v>
-      </c>
       <c r="K28">
-        <v>0.007448212447522694</v>
+        <v>0.03328214552020281</v>
       </c>
       <c r="L28">
-        <v>0.000731942032818355</v>
+        <v>0.02143943028719289</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.01489676375845871</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-0.01497929568752186</v>
       </c>
       <c r="O28">
         <v>0.09999999999999998</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>0.09999999999999998</v>
       </c>
-      <c r="BA28">
-        <v>0.09999999999999998</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.1100569017469048</v>
-      </c>
-      <c r="J29">
-        <v>0.05302895535639242</v>
-      </c>
       <c r="K29">
-        <v>0.009262992695606875</v>
+        <v>0.03425679652759876</v>
       </c>
       <c r="L29">
-        <v>0.009401939748113772</v>
+        <v>0.02332194073133593</v>
       </c>
       <c r="M29">
-        <v>-0.00411440483221992</v>
+        <v>0.01500614428182545</v>
       </c>
       <c r="N29">
-        <v>-0.02018331725016664</v>
+        <v>0.003884457397656044</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>0</v>
       </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.1103431873530127</v>
-      </c>
-      <c r="J30">
-        <v>0.05330245833780905</v>
-      </c>
       <c r="K30">
-        <v>0.009516222147310596</v>
+        <v>0.03467285243624802</v>
       </c>
       <c r="L30">
-        <v>0.01084337855117537</v>
+        <v>0.0244808069259775</v>
       </c>
       <c r="M30">
-        <v>-0.01322280403366449</v>
+        <v>0.01486868756635211</v>
       </c>
       <c r="N30">
-        <v>-0.05002087136693156</v>
+        <v>0.01606548333017448</v>
       </c>
       <c r="O30">
-        <v>-0.1000000000000001</v>
+        <v>0.001529086747654835</v>
       </c>
       <c r="P30">
         <v>-0.2</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>-0.2</v>
       </c>
-      <c r="BA30">
-        <v>-0.2</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.1104124733439434</v>
-      </c>
-      <c r="J31">
-        <v>0.05342599057274177</v>
-      </c>
       <c r="K31">
-        <v>0.009315495942999069</v>
+        <v>0.03470641304634448</v>
       </c>
       <c r="L31">
-        <v>0.01042161262965075</v>
+        <v>0.02482355360498172</v>
       </c>
       <c r="M31">
-        <v>-0.002316079168615617</v>
+        <v>0.01477783164006457</v>
       </c>
       <c r="N31">
-        <v>-0.01486611403149792</v>
+        <v>0.02008814399605826</v>
       </c>
       <c r="O31">
-        <v>-0.1000000000000001</v>
+        <v>0.01469870942797131</v>
       </c>
       <c r="P31">
         <v>0.09999999999999998</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.09999999999999998</v>
       </c>
-      <c r="BA31">
-        <v>0.09999999999999998</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.1103860285377317</v>
-      </c>
-      <c r="J32">
-        <v>0.05343076115896981</v>
-      </c>
-      <c r="K32">
-        <v>0.009143992542117873</v>
-      </c>
       <c r="L32">
-        <v>0.009987325147060945</v>
+        <v>0.02482446204809015</v>
       </c>
       <c r="M32">
-        <v>0.004914165568825586</v>
+        <v>0.0147470824524225</v>
       </c>
       <c r="N32">
-        <v>0.008066626408044245</v>
+        <v>0.02061508739458093</v>
       </c>
       <c r="O32">
-        <v>-0.1000000000000001</v>
+        <v>0.02150126299516164</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.09054271625321549</v>
       </c>
       <c r="Q32">
         <v>0.2999999999999999</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>0.2999999999999999</v>
       </c>
-      <c r="BA32">
-        <v>0.2999999999999999</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.009078967981975763</v>
-      </c>
       <c r="L33">
-        <v>0.00980733702355268</v>
+        <v>0.0247677879605298</v>
       </c>
       <c r="M33">
-        <v>0.00737126184129579</v>
+        <v>0.01474286975202436</v>
       </c>
       <c r="N33">
-        <v>0.01573659249662112</v>
+        <v>0.02035725996737384</v>
       </c>
       <c r="O33">
-        <v>-0.03806149545539017</v>
+        <v>0.02348513312564541</v>
       </c>
       <c r="P33">
-        <v>-0.02921599406344</v>
+        <v>0.04829639653848206</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>0</v>
       </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.009072957849996307</v>
-      </c>
-      <c r="L34">
-        <v>0.009769118384949715</v>
-      </c>
       <c r="M34">
-        <v>0.007720500541436689</v>
+        <v>0.01474484951982844</v>
       </c>
       <c r="N34">
-        <v>0.01681033066271745</v>
+        <v>0.02014737855986136</v>
       </c>
       <c r="O34">
-        <v>-0.05597415627301838</v>
+        <v>0.02369768420360396</v>
       </c>
       <c r="P34">
-        <v>-0.07087068323321011</v>
+        <v>0.02756384478453518</v>
       </c>
       <c r="Q34">
-        <v>0.09999999999999998</v>
+        <v>-0.02719442678130985</v>
       </c>
       <c r="R34">
         <v>-0.3040828537337272</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>-0.3040828537337272</v>
       </c>
-      <c r="BA34">
-        <v>-0.3040828537337272</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.009082012017834068</v>
-      </c>
-      <c r="L35">
-        <v>0.009773307322040098</v>
-      </c>
       <c r="M35">
-        <v>0.007573084031558844</v>
+        <v>0.01474652655927186</v>
       </c>
       <c r="N35">
-        <v>0.01636543598159478</v>
+        <v>0.02006901752202333</v>
       </c>
       <c r="O35">
-        <v>-0.021520807674764</v>
+        <v>0.02356535989605167</v>
       </c>
       <c r="P35">
-        <v>-0.02538342246107195</v>
+        <v>0.02207004564727976</v>
       </c>
       <c r="Q35">
-        <v>0.09999999999999998</v>
+        <v>0.001699479254865521</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>0</v>
       </c>
-      <c r="BA35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.009088690321394616</v>
-      </c>
-      <c r="L36">
-        <v>0.009780971384548922</v>
-      </c>
-      <c r="M36">
-        <v>0.007444186009646955</v>
-      </c>
       <c r="N36">
-        <v>0.01598230278845227</v>
+        <v>0.02005506217283045</v>
       </c>
       <c r="O36">
-        <v>-0.0007358297344338769</v>
+        <v>0.02346884453948823</v>
       </c>
       <c r="P36">
-        <v>0.002846305163266236</v>
+        <v>0.0218014823983762</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.02057179940046807</v>
       </c>
       <c r="R36">
-        <v>0.09999999999999998</v>
+        <v>0.06319922579297454</v>
       </c>
       <c r="S36">
         <v>0.1</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>0.1</v>
       </c>
-      <c r="BA36">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.007393899238659967</v>
-      </c>
       <c r="N37">
-        <v>0.0158351521713061</v>
+        <v>0.02005809617441577</v>
       </c>
       <c r="O37">
-        <v>0.006146864945688104</v>
+        <v>0.02343395872174845</v>
       </c>
       <c r="P37">
-        <v>0.01204709887251786</v>
+        <v>0.02234602469204431</v>
       </c>
       <c r="Q37">
-        <v>0.052030371842539</v>
+        <v>0.02621281857716133</v>
       </c>
       <c r="R37">
-        <v>0.09999999999999998</v>
+        <v>0.04478106040794813</v>
       </c>
       <c r="S37">
         <v>0.09999999999999998</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>0.09999999999999998</v>
       </c>
-      <c r="BA37">
-        <v>0.09999999999999998</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.007384122039625352</v>
-      </c>
-      <c r="N38">
-        <v>0.01580696604704955</v>
-      </c>
       <c r="O38">
-        <v>0.007254175843347932</v>
+        <v>0.02342736569896318</v>
       </c>
       <c r="P38">
-        <v>0.01348280249402725</v>
+        <v>0.02266186294820903</v>
       </c>
       <c r="Q38">
-        <v>0.002523310772044929</v>
+        <v>0.02643220193205953</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>0.02465626357834662</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>0.04893452979822641</v>
       </c>
       <c r="T38">
         <v>-0.015690968608089</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>-0.015690968608089</v>
       </c>
-      <c r="BA38">
-        <v>-0.015690968608089</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.007385698531264335</v>
-      </c>
-      <c r="N39">
-        <v>0.01581141213909671</v>
-      </c>
       <c r="O39">
-        <v>0.006990060906940335</v>
+        <v>0.02342817672150962</v>
       </c>
       <c r="P39">
-        <v>0.01314759409752902</v>
+        <v>0.02275788221380507</v>
       </c>
       <c r="Q39">
-        <v>0.01366659306501402</v>
+        <v>0.02573757551728695</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>0.0173547215298515</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.02241425395860035</v>
       </c>
       <c r="T39">
         <v>0.05096808056002433</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>0.05096808056002433</v>
       </c>
-      <c r="BA39">
-        <v>0.05096808056002433</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.007387909965344477</v>
-      </c>
-      <c r="N40">
-        <v>0.01581757079031118</v>
-      </c>
-      <c r="O40">
-        <v>0.006709498374187254</v>
-      </c>
       <c r="P40">
-        <v>0.01280793905051434</v>
+        <v>0.0227683665539842</v>
       </c>
       <c r="Q40">
-        <v>0.02567552727815622</v>
+        <v>0.02534611941717968</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>0.01696280111944866</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>0.01746813927960973</v>
       </c>
       <c r="T40">
-        <v>0.04414465364515863</v>
+        <v>0.04327831654601024</v>
       </c>
       <c r="U40">
         <v>0.2151519277310885</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>0.2151519277310885</v>
       </c>
-      <c r="BA40">
-        <v>0.2151519277310885</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.006591479512482799</v>
-      </c>
       <c r="P41">
-        <v>0.01267250535777782</v>
+        <v>0.02276185221621014</v>
       </c>
       <c r="Q41">
-        <v>0.03035915392350638</v>
+        <v>0.02524276738878465</v>
       </c>
       <c r="R41">
-        <v>0.01751885518434304</v>
+        <v>0.01798641072862437</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>0.01948357687836575</v>
       </c>
       <c r="T41">
-        <v>0.03030290081591508</v>
+        <v>0.02786101353835539</v>
       </c>
       <c r="U41">
         <v>0.1068236533051979</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>0.1068236533051979</v>
       </c>
-      <c r="BA41">
-        <v>0.1068236533051979</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.00656301377192006</v>
-      </c>
-      <c r="P42">
-        <v>0.01264252368950765</v>
-      </c>
       <c r="Q42">
-        <v>0.03120465040015212</v>
+        <v>0.02524529461984089</v>
       </c>
       <c r="R42">
-        <v>0.02008227882880098</v>
+        <v>0.01858090152167982</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>0.02138522935916211</v>
       </c>
       <c r="T42">
-        <v>0.01184793300521725</v>
+        <v>0.02121770380441311</v>
       </c>
       <c r="U42">
-        <v>-0.0003364362792013242</v>
+        <v>0.03638990481102142</v>
       </c>
       <c r="V42">
         <v>0.04431897453975564</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>0.04431897453975564</v>
       </c>
-      <c r="BA42">
-        <v>0.04431897453975564</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.006562440322454509</v>
-      </c>
-      <c r="P43">
-        <v>0.01264291136762592</v>
-      </c>
       <c r="Q43">
-        <v>0.03103515968510883</v>
+        <v>0.02526141431642618</v>
       </c>
       <c r="R43">
-        <v>0.020140000968986</v>
+        <v>0.01871607027780924</v>
       </c>
       <c r="S43">
-        <v>0.01203313995759619</v>
+        <v>0.02202445385745615</v>
       </c>
       <c r="T43">
-        <v>0.02327989630046334</v>
+        <v>0.0204333037416964</v>
       </c>
       <c r="U43">
-        <v>0.03292025297595114</v>
+        <v>0.01876004855379921</v>
       </c>
       <c r="V43">
-        <v>0.2138655158257279</v>
+        <v>0.02311348603073972</v>
       </c>
       <c r="W43">
         <v>0.09123448438175896</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>0.09123448438175896</v>
       </c>
-      <c r="BA43">
-        <v>0.09123448438175896</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.006565689212124677</v>
-      </c>
-      <c r="P44">
-        <v>0.0126466067292163</v>
-      </c>
-      <c r="Q44">
-        <v>0.03084065999067762</v>
-      </c>
       <c r="R44">
-        <v>0.0197248508449658</v>
+        <v>0.01868605991267799</v>
       </c>
       <c r="S44">
-        <v>0.01827460341255651</v>
+        <v>0.02202771888415116</v>
       </c>
       <c r="T44">
-        <v>0.02344496900398435</v>
+        <v>0.02116877589290685</v>
       </c>
       <c r="U44">
-        <v>0.02575449428797294</v>
+        <v>0.02189706721867903</v>
       </c>
       <c r="V44">
-        <v>0.1144278353286429</v>
+        <v>0.02298600064357983</v>
       </c>
       <c r="W44">
-        <v>0.124389953244618</v>
+        <v>0.06000463017084968</v>
       </c>
       <c r="X44">
         <v>-0.2716600973116948</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>-0.2716600973116948</v>
       </c>
-      <c r="BA44">
-        <v>-0.2716600973116948</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.03076339579797055</v>
-      </c>
       <c r="R45">
-        <v>0.0194995610697138</v>
+        <v>0.01864786318914323</v>
       </c>
       <c r="S45">
-        <v>0.01942344778564617</v>
+        <v>0.02191892176968622</v>
       </c>
       <c r="T45">
-        <v>0.03245728503599371</v>
+        <v>0.0216833556496636</v>
       </c>
       <c r="U45">
-        <v>0.03488473191715469</v>
+        <v>0.02659580300420605</v>
       </c>
       <c r="V45">
-        <v>0.03650542552267405</v>
+        <v>0.02660570658660666</v>
       </c>
       <c r="W45">
-        <v>0.04003491532627107</v>
+        <v>0.03577146450518859</v>
       </c>
       <c r="X45">
-        <v>0.06994643943514478</v>
+        <v>-0.142042053002903</v>
       </c>
       <c r="Y45">
         <v>0.228981402283536</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>0.228981402283536</v>
       </c>
-      <c r="BA45">
-        <v>0.228981402283536</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.03074898600743435</v>
-      </c>
-      <c r="R46">
-        <v>0.01945482311929441</v>
-      </c>
       <c r="S46">
-        <v>0.01893603895343812</v>
+        <v>0.02186185484147332</v>
       </c>
       <c r="T46">
-        <v>0.01048914795523898</v>
+        <v>0.02182287654557728</v>
       </c>
       <c r="U46">
-        <v>0.01372976374571738</v>
+        <v>0.02848469541021458</v>
       </c>
       <c r="V46">
-        <v>0.03243477352088853</v>
+        <v>0.02850409483780146</v>
       </c>
       <c r="W46">
-        <v>0.0297951016611645</v>
+        <v>0.02859123953454015</v>
       </c>
       <c r="X46">
-        <v>0.03016339292225023</v>
+        <v>-0.01368623228968412</v>
       </c>
       <c r="Y46">
-        <v>0.1467255298080423</v>
+        <v>0.168133151936049</v>
       </c>
       <c r="Z46">
         <v>0.2</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0.2</v>
       </c>
-      <c r="BA46">
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.03075154700045322</v>
-      </c>
-      <c r="R47">
-        <v>0.01947074166164261</v>
-      </c>
       <c r="S47">
-        <v>0.01848382542559381</v>
+        <v>0.02185102383642715</v>
       </c>
       <c r="T47">
-        <v>0.01394618725126507</v>
+        <v>0.02180659198300841</v>
       </c>
       <c r="U47">
-        <v>0.01901956397936981</v>
+        <v>0.02864489588956589</v>
       </c>
       <c r="V47">
-        <v>0.03534911699263182</v>
+        <v>0.02885894941837555</v>
       </c>
       <c r="W47">
-        <v>0.03826086969812709</v>
+        <v>0.02903821839683986</v>
       </c>
       <c r="X47">
-        <v>0.02381525897082531</v>
+        <v>0.02977379948120784</v>
       </c>
       <c r="Y47">
-        <v>0.02254901660146819</v>
+        <v>0.06711203038188918</v>
       </c>
       <c r="Z47">
-        <v>0.1</v>
+        <v>0.08249140793227973</v>
       </c>
       <c r="AA47">
         <v>-0.1781284012960198</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>-0.1781284012960198</v>
       </c>
-      <c r="BA47">
-        <v>-0.1781284012960198</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.03075469514837224</v>
-      </c>
-      <c r="R48">
-        <v>0.01948676363412175</v>
-      </c>
-      <c r="S48">
-        <v>0.01833386434174255</v>
-      </c>
       <c r="T48">
-        <v>0.01950403678947073</v>
+        <v>0.02177422488217567</v>
       </c>
       <c r="U48">
-        <v>0.02546160762765337</v>
+        <v>0.02839872992926784</v>
       </c>
       <c r="V48">
-        <v>0.04014744127553282</v>
+        <v>0.02871291961228683</v>
       </c>
       <c r="W48">
-        <v>0.04258210848358979</v>
+        <v>0.03050366085451776</v>
       </c>
       <c r="X48">
-        <v>0.02593791216312963</v>
+        <v>0.03003957769500417</v>
       </c>
       <c r="Y48">
-        <v>0.02295008752096633</v>
+        <v>0.02869306165862241</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.03144748675989705</v>
       </c>
       <c r="AA48">
-        <v>0.1143801122861683</v>
+        <v>-0.09784419044817948</v>
       </c>
       <c r="AB48">
         <v>-0.3</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>-0.3</v>
       </c>
-      <c r="BA48">
-        <v>-0.3</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.01949230760480364</v>
-      </c>
-      <c r="S49">
-        <v>0.0183345697411092</v>
-      </c>
       <c r="T49">
-        <v>0.02178085297729148</v>
+        <v>0.02176030206316575</v>
       </c>
       <c r="U49">
-        <v>0.02786901751890702</v>
+        <v>0.02824320698745145</v>
       </c>
       <c r="V49">
-        <v>0.04843126713026435</v>
+        <v>0.0285755485883432</v>
       </c>
       <c r="W49">
-        <v>0.0506216363978671</v>
+        <v>0.03118561867665092</v>
       </c>
       <c r="X49">
-        <v>0.0293216455625836</v>
+        <v>0.02274110393002137</v>
       </c>
       <c r="Y49">
-        <v>0.01565050844723581</v>
+        <v>0.02537075885469987</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.02491699110117893</v>
       </c>
       <c r="AA49">
-        <v>0.01909761865990667</v>
+        <v>0.0004307691040378071</v>
       </c>
       <c r="AB49">
-        <v>0.1</v>
+        <v>-0.1003600010752037</v>
       </c>
       <c r="AC49">
         <v>0.06505493203313417</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>0.06505493203313417</v>
       </c>
-      <c r="BA49">
-        <v>0.06505493203313417</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.01949240046313478</v>
-      </c>
-      <c r="S50">
-        <v>0.01836096368598355</v>
-      </c>
-      <c r="T50">
-        <v>0.02200236035128098</v>
-      </c>
       <c r="U50">
-        <v>0.02798673761094968</v>
+        <v>0.0282054935716188</v>
       </c>
       <c r="V50">
-        <v>0.02835724284007007</v>
+        <v>0.02852972587985213</v>
       </c>
       <c r="W50">
-        <v>0.03101920748109444</v>
+        <v>0.03128686913248858</v>
       </c>
       <c r="X50">
-        <v>0.00964600976124913</v>
+        <v>0.01896367555318288</v>
       </c>
       <c r="Y50">
-        <v>0.001773913408160188</v>
+        <v>0.02938600648318254</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.02945013410223927</v>
       </c>
       <c r="AA50">
-        <v>-0.007702285865510639</v>
+        <v>0.03301771427686238</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.0177399123364514</v>
       </c>
       <c r="AC50">
-        <v>0.04363517131072919</v>
+        <v>0.101858689407385</v>
       </c>
       <c r="AD50">
         <v>0.1023597690241737</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>0.1023597690241737</v>
       </c>
-      <c r="BA50">
-        <v>0.1023597690241737</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.0194914860273242</v>
-      </c>
-      <c r="S51">
-        <v>0.01837453151533596</v>
-      </c>
-      <c r="T51">
-        <v>0.02172578492482529</v>
-      </c>
       <c r="U51">
-        <v>0.02762608012835651</v>
+        <v>0.02821304994759505</v>
       </c>
       <c r="V51">
-        <v>0.0296823447434023</v>
+        <v>0.028529851096891</v>
       </c>
       <c r="W51">
-        <v>0.02920266589810548</v>
+        <v>0.03122209211537854</v>
       </c>
       <c r="X51">
-        <v>0.01635464968133372</v>
+        <v>0.01828063903057184</v>
       </c>
       <c r="Y51">
-        <v>-0.003433134881331623</v>
+        <v>0.0317451575206763</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>0.032559560090898</v>
       </c>
       <c r="AA51">
-        <v>-0.009986560485465812</v>
+        <v>0.03225219864459845</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.03899037303609407</v>
       </c>
       <c r="AC51">
-        <v>-0.01498968715888849</v>
+        <v>0.05232821146777284</v>
       </c>
       <c r="AD51">
-        <v>-0.05967099285329747</v>
+        <v>0.05257352956411395</v>
       </c>
       <c r="AE51">
         <v>-0.5425305662094128</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>-0.5425305662094128</v>
       </c>
-      <c r="BA51">
-        <v>-0.5425305662094128</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.01949099574253566</v>
-      </c>
-      <c r="S52">
-        <v>0.01837698792940253</v>
-      </c>
-      <c r="T52">
-        <v>0.02154490451884336</v>
-      </c>
-      <c r="U52">
-        <v>0.02741882604400608</v>
-      </c>
       <c r="V52">
-        <v>0.03374472194879267</v>
+        <v>0.02853788057718527</v>
       </c>
       <c r="W52">
-        <v>0.03163184406373027</v>
+        <v>0.03117115081149357</v>
       </c>
       <c r="X52">
-        <v>0.02252424000851191</v>
+        <v>0.01857755447399543</v>
       </c>
       <c r="Y52">
-        <v>-0.001838410295742665</v>
+        <v>0.03226632199369005</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.03334874445880649</v>
       </c>
       <c r="AA52">
-        <v>-0.006196789251822987</v>
+        <v>0.02663505614229773</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.028112599180648</v>
       </c>
       <c r="AC52">
-        <v>-0.006308568679095072</v>
+        <v>0.02235586947035541</v>
       </c>
       <c r="AD52">
-        <v>-0.003913561791116738</v>
+        <v>0.02238609285900433</v>
       </c>
       <c r="AE52">
-        <v>-0.5954290933064567</v>
+        <v>-0.2628136942399764</v>
       </c>
       <c r="AF52">
         <v>-5.4</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>-5.4</v>
       </c>
-      <c r="BA52">
-        <v>-5.4</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.02149897904222539</v>
-      </c>
-      <c r="U53">
-        <v>0.02737472967008364</v>
-      </c>
-      <c r="V53">
-        <v>0.03561722236324391</v>
-      </c>
       <c r="W53">
-        <v>0.03320284924392709</v>
+        <v>0.03115590712763754</v>
       </c>
       <c r="X53">
-        <v>0.02450113871276096</v>
+        <v>0.01884621951387718</v>
       </c>
       <c r="Y53">
-        <v>0.0005119656599564815</v>
+        <v>0.03216806845326449</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>0.03325699533890502</v>
       </c>
       <c r="AA53">
-        <v>-0.003239880232202341</v>
+        <v>0.02415505986177348</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>0.01906396475376784</v>
       </c>
       <c r="AC53">
-        <v>-0.006444588016499664</v>
+        <v>0.01735692765248251</v>
       </c>
       <c r="AD53">
-        <v>-0.005520994775534416</v>
+        <v>0.0173349149704014</v>
       </c>
       <c r="AE53">
-        <v>-0.0265845122668158</v>
+        <v>-0.01477333777809373</v>
       </c>
       <c r="AF53">
-        <v>2.3</v>
+        <v>2.03040224812923</v>
       </c>
       <c r="AG53">
         <v>2.03040224812923</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>2.03040224812923</v>
       </c>
-      <c r="BA53">
-        <v>2.03040224812923</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.02150632088949139</v>
-      </c>
-      <c r="U54">
-        <v>0.02738820352875832</v>
-      </c>
-      <c r="V54">
-        <v>0.03589936007122148</v>
-      </c>
-      <c r="W54">
-        <v>0.03359919154464039</v>
-      </c>
       <c r="X54">
-        <v>0.02453540938707976</v>
+        <v>0.0189328062470031</v>
       </c>
       <c r="Y54">
-        <v>-0.009977258504001996</v>
+        <v>0.03204658130778482</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.03309610975160499</v>
       </c>
       <c r="AA54">
-        <v>-0.01503468129476704</v>
+        <v>0.02391263712728246</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.01664534865173979</v>
       </c>
       <c r="AC54">
-        <v>-0.02105286335651008</v>
+        <v>0.02049591687822643</v>
       </c>
       <c r="AD54">
-        <v>-0.01737472235161669</v>
+        <v>0.02049026144263023</v>
       </c>
       <c r="AE54">
-        <v>0.2834573142222149</v>
+        <v>0.04657824638411923</v>
       </c>
       <c r="AF54">
-        <v>2.5</v>
+        <v>0.4400761145445101</v>
       </c>
       <c r="AG54">
-        <v>0.946995896678686</v>
+        <v>0.4339050167294337</v>
       </c>
       <c r="AH54">
         <v>0.4339050167294337</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>0.4339050167294337</v>
       </c>
-      <c r="BA54">
-        <v>0.4339050167294337</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.02151799910627328</v>
-      </c>
-      <c r="U55">
-        <v>0.02740289822225389</v>
-      </c>
-      <c r="V55">
-        <v>0.03572972120491771</v>
-      </c>
-      <c r="W55">
-        <v>0.03353443874512423</v>
-      </c>
-      <c r="X55">
-        <v>0.02425728644765417</v>
-      </c>
       <c r="Y55">
-        <v>0.01127050929690912</v>
+        <v>0.0320040140125038</v>
       </c>
       <c r="Z55">
-        <v>0.0175818293106891</v>
+        <v>0.03303398645606591</v>
       </c>
       <c r="AA55">
-        <v>0.008811457191119181</v>
+        <v>0.02420075438686085</v>
       </c>
       <c r="AB55">
-        <v>0.01201543367910601</v>
+        <v>0.01709751594926743</v>
       </c>
       <c r="AC55">
-        <v>-0.01721392010446909</v>
+        <v>0.02288332713798863</v>
       </c>
       <c r="AD55">
-        <v>-0.06194216344538911</v>
+        <v>0.02289526694383655</v>
       </c>
       <c r="AE55">
-        <v>-0.05655741081613974</v>
+        <v>0.02844316054610784</v>
       </c>
       <c r="AF55">
-        <v>1.1</v>
+        <v>-0.523127112167322</v>
       </c>
       <c r="AG55">
-        <v>0.6333722518211343</v>
+        <v>-0.5148417155941024</v>
       </c>
       <c r="AH55">
-        <v>-0.2222184485480282</v>
+        <v>1.197090680270919</v>
       </c>
       <c r="AI55">
         <v>1.197090680270919</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>1.197090680270919</v>
       </c>
-      <c r="BA55">
-        <v>1.197090680270919</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.0215227698052852</v>
-      </c>
-      <c r="U56">
-        <v>0.02740814319368617</v>
-      </c>
-      <c r="V56">
-        <v>0.03559472547510295</v>
-      </c>
-      <c r="W56">
-        <v>0.03343274073622107</v>
-      </c>
-      <c r="X56">
-        <v>0.02411798404430523</v>
-      </c>
-      <c r="Y56">
-        <v>0.02256168532103149</v>
-      </c>
       <c r="Z56">
-        <v>0.02630844673734303</v>
+        <v>0.0330287028358323</v>
       </c>
       <c r="AA56">
-        <v>0.02075404649238478</v>
+        <v>0.02437344808096926</v>
       </c>
       <c r="AB56">
-        <v>0.01779969713364443</v>
+        <v>0.0177483098893448</v>
       </c>
       <c r="AC56">
-        <v>-0.009941010989604315</v>
+        <v>0.02342904813789772</v>
       </c>
       <c r="AD56">
-        <v>-0.007788019807438651</v>
+        <v>0.02344614445811757</v>
       </c>
       <c r="AE56">
-        <v>-0.01167642096244947</v>
+        <v>0.008722433861545385</v>
       </c>
       <c r="AF56">
-        <v>0.1</v>
+        <v>-0.06283947856979356</v>
       </c>
       <c r="AG56">
-        <v>0.1416915465883819</v>
+        <v>-0.0606970769337324</v>
       </c>
       <c r="AH56">
-        <v>0.2724030966903045</v>
+        <v>-0.2478158442830747</v>
       </c>
       <c r="AI56">
-        <v>-0.08446324897183921</v>
+        <v>-0.6441697788099752</v>
       </c>
       <c r="AJ56">
         <v>-0.6441697788099752</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>-0.6441697788099752</v>
       </c>
-      <c r="BA56">
-        <v>-0.6441697788099752</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.03555364257719789</v>
-      </c>
-      <c r="W57">
-        <v>0.03339117971389124</v>
-      </c>
-      <c r="X57">
-        <v>0.02409222510548553</v>
-      </c>
-      <c r="Y57">
-        <v>0.02620349167867914</v>
-      </c>
-      <c r="Z57">
-        <v>0.02894586619047406</v>
-      </c>
       <c r="AA57">
-        <v>0.0243212060929025</v>
+        <v>0.02440696703504977</v>
       </c>
       <c r="AB57">
-        <v>0.01913107062817345</v>
+        <v>0.01798133040865207</v>
       </c>
       <c r="AC57">
-        <v>-0.009043683159125515</v>
+        <v>0.02324823483669686</v>
       </c>
       <c r="AD57">
-        <v>-0.008487264748053558</v>
+        <v>0.02326441492045491</v>
       </c>
       <c r="AE57">
-        <v>-0.0125082975625429</v>
+        <v>0.003080247679072741</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>0.01247709933503215</v>
       </c>
       <c r="AG57">
-        <v>0.1058681882927397</v>
+        <v>0.01100317206524759</v>
       </c>
       <c r="AH57">
-        <v>-0.1057569450634666</v>
+        <v>-0.0680403039869969</v>
       </c>
       <c r="AI57">
-        <v>-0.6706018608006168</v>
+        <v>-0.007210237480259007</v>
       </c>
       <c r="AJ57">
-        <v>-0.5669075164892119</v>
+        <v>0.4901411037136303</v>
       </c>
       <c r="AK57">
         <v>0.4901411037136303</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>0.4901411037136303</v>
       </c>
-      <c r="BA57">
-        <v>0.4901411037136303</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.03555517266009632</v>
-      </c>
-      <c r="W58">
-        <v>0.03338713080301031</v>
-      </c>
-      <c r="X58">
-        <v>0.02410055956586612</v>
-      </c>
-      <c r="Y58">
-        <v>0.02698787865437193</v>
-      </c>
-      <c r="Z58">
-        <v>0.02941413782655474</v>
-      </c>
-      <c r="AA58">
-        <v>0.02499564265302451</v>
-      </c>
       <c r="AB58">
-        <v>0.01907242919449783</v>
+        <v>0.01797730205537744</v>
       </c>
       <c r="AC58">
-        <v>-0.02448943151210231</v>
+        <v>0.0230635476805268</v>
       </c>
       <c r="AD58">
-        <v>-0.0208763097389974</v>
+        <v>0.02307831928392375</v>
       </c>
       <c r="AE58">
-        <v>-0.02465023573671588</v>
+        <v>0.004172501480601323</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>-0.08107859001369323</v>
       </c>
       <c r="AG58">
-        <v>-0.02868715489039197</v>
+        <v>-0.079600389356902</v>
       </c>
       <c r="AH58">
-        <v>-0.05746706018962144</v>
+        <v>-0.004257238944212975</v>
       </c>
       <c r="AI58">
-        <v>-0.2700402338977563</v>
+        <v>0.01554776734054587</v>
       </c>
       <c r="AJ58">
-        <v>0.00156768717003819</v>
+        <v>-0.07373572228244545</v>
       </c>
       <c r="AK58">
-        <v>-0.2249506847449997</v>
+        <v>-0.09098140646410988</v>
       </c>
       <c r="AL58">
         <v>-0.09098140646410988</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>-0.09098140646410988</v>
       </c>
-      <c r="BA58">
-        <v>-0.09098140646410988</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.03556287696313574</v>
-      </c>
-      <c r="W59">
-        <v>0.03339217881501246</v>
-      </c>
-      <c r="X59">
-        <v>0.02410842033644473</v>
-      </c>
-      <c r="Y59">
-        <v>0.02705044201113937</v>
-      </c>
-      <c r="Z59">
-        <v>0.02939245081916157</v>
-      </c>
-      <c r="AA59">
-        <v>0.02501694064761179</v>
-      </c>
-      <c r="AB59">
-        <v>0.01888317823508014</v>
-      </c>
       <c r="AC59">
-        <v>0.003803078133812718</v>
+        <v>0.02300998388090991</v>
       </c>
       <c r="AD59">
-        <v>0.005344420787962954</v>
+        <v>0.02302426708680215</v>
       </c>
       <c r="AE59">
-        <v>-0.005621819291108145</v>
+        <v>0.005722880374855219</v>
       </c>
       <c r="AF59">
-        <v>0.03909192105526136</v>
+        <v>-0.07574574794518665</v>
       </c>
       <c r="AG59">
-        <v>-0.03262007354168989</v>
+        <v>-0.07406158276635387</v>
       </c>
       <c r="AH59">
-        <v>0.01466597809647907</v>
+        <v>-0.02581599638638171</v>
       </c>
       <c r="AI59">
-        <v>0.03093069696832318</v>
+        <v>-0.03541026410066415</v>
       </c>
       <c r="AJ59">
-        <v>0.0440771787447094</v>
+        <v>-0.03766951281788129</v>
       </c>
       <c r="AK59">
-        <v>0.2544192057373819</v>
+        <v>-0.0403142842331642</v>
       </c>
       <c r="AL59">
-        <v>0.2054629753839422</v>
+        <v>-0.3952916234765647</v>
       </c>
       <c r="AM59">
         <v>-0.3952916234765647</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>-0.3952916234765647</v>
       </c>
-      <c r="BA59">
-        <v>-0.3952916234765647</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.03556659361538696</v>
-      </c>
-      <c r="W60">
-        <v>0.03339549059173528</v>
-      </c>
-      <c r="X60">
-        <v>0.02411097089967036</v>
-      </c>
-      <c r="Y60">
-        <v>0.0270120033429558</v>
-      </c>
-      <c r="Z60">
-        <v>0.02933656954478042</v>
-      </c>
-      <c r="AA60">
-        <v>0.02497203458969222</v>
-      </c>
-      <c r="AB60">
-        <v>0.01879916458583806</v>
-      </c>
-      <c r="AC60">
-        <v>0.01692035708954985</v>
-      </c>
       <c r="AD60">
-        <v>0.0174542128381141</v>
+        <v>0.02303296796809918</v>
       </c>
       <c r="AE60">
-        <v>0.0052527459090232</v>
+        <v>0.00622855620691824</v>
       </c>
       <c r="AF60">
-        <v>0.03925873430351918</v>
+        <v>-0.06075413358238466</v>
       </c>
       <c r="AG60">
-        <v>-0.03791634434732438</v>
+        <v>-0.05984907520477213</v>
       </c>
       <c r="AH60">
-        <v>-0.008537658621150801</v>
+        <v>-0.02647744056000942</v>
       </c>
       <c r="AI60">
-        <v>-0.01101407959106498</v>
+        <v>-0.0280556367165483</v>
       </c>
       <c r="AJ60">
-        <v>-0.02439884925431324</v>
+        <v>-0.01090392973714648</v>
       </c>
       <c r="AK60">
-        <v>0.170219776601887</v>
+        <v>-0.01637938667748443</v>
       </c>
       <c r="AL60">
-        <v>0.2246063274524341</v>
+        <v>0.03691816284481474</v>
       </c>
       <c r="AM60">
-        <v>0.1671904148993125</v>
+        <v>-0.2380782088493735</v>
       </c>
       <c r="AN60">
         <v>-0.2380782088493735</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>-0.2380782088493735</v>
       </c>
-      <c r="BA60">
-        <v>-0.2380782088493735</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.02698774426289102</v>
-      </c>
-      <c r="Z61">
-        <v>0.02931092276880794</v>
-      </c>
-      <c r="AA61">
-        <v>0.02494961891346897</v>
-      </c>
-      <c r="AB61">
-        <v>0.01878160883005938</v>
-      </c>
-      <c r="AC61">
-        <v>0.0204970753540927</v>
-      </c>
-      <c r="AD61">
-        <v>0.02057849591869624</v>
-      </c>
       <c r="AE61">
-        <v>0.006989082802221198</v>
+        <v>0.006171092162318743</v>
       </c>
       <c r="AF61">
-        <v>0.02855234630170118</v>
+        <v>-0.06459056681798944</v>
       </c>
       <c r="AG61">
-        <v>-0.007767969482481984</v>
+        <v>-0.0635508417418133</v>
       </c>
       <c r="AH61">
-        <v>0.01515543591687035</v>
+        <v>-0.02499701710660487</v>
       </c>
       <c r="AI61">
-        <v>-0.02054413646276981</v>
+        <v>-0.02560501776225291</v>
       </c>
       <c r="AJ61">
-        <v>-0.03468524280111646</v>
+        <v>-0.01793591228720827</v>
       </c>
       <c r="AK61">
-        <v>-0.01311832664604518</v>
+        <v>-0.02366126720661335</v>
       </c>
       <c r="AL61">
-        <v>0.2376046120611246</v>
+        <v>-0.02437046410159623</v>
       </c>
       <c r="AM61">
-        <v>0.2654693083104523</v>
+        <v>0.001874410193601319</v>
       </c>
       <c r="AN61">
-        <v>0.2921640651019387</v>
+        <v>-0.02511582766690132</v>
       </c>
       <c r="AO61">
         <v>-0.02511582766690132</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>-0.02511582766690132</v>
       </c>
-      <c r="BA61">
-        <v>-0.02511582766690132</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.02697928569745527</v>
-      </c>
-      <c r="Z62">
-        <v>0.02930357722618231</v>
-      </c>
-      <c r="AA62">
-        <v>0.02494293552927505</v>
-      </c>
-      <c r="AB62">
-        <v>0.01878331833461966</v>
-      </c>
-      <c r="AC62">
-        <v>0.0210906380841048</v>
-      </c>
-      <c r="AD62">
-        <v>0.02097149436501878</v>
-      </c>
-      <c r="AE62">
-        <v>0.005914862773393529</v>
-      </c>
       <c r="AF62">
-        <v>0.02846097055538263</v>
+        <v>-0.0664115433846186</v>
       </c>
       <c r="AG62">
-        <v>-0.008090642302314599</v>
+        <v>-0.06522874811986983</v>
       </c>
       <c r="AH62">
-        <v>0.01505941718100196</v>
+        <v>-0.02518890177986531</v>
       </c>
       <c r="AI62">
-        <v>0.01206373270091227</v>
+        <v>-0.02658115054115013</v>
       </c>
       <c r="AJ62">
-        <v>-0.003843466536792683</v>
+        <v>-0.01823287325811281</v>
       </c>
       <c r="AK62">
-        <v>0.02196462944616284</v>
+        <v>-0.02369519385616882</v>
       </c>
       <c r="AL62">
-        <v>0.221816109232675</v>
+        <v>-0.04002965129588343</v>
       </c>
       <c r="AM62">
-        <v>0.2116880093445911</v>
+        <v>-0.05564121789590613</v>
       </c>
       <c r="AN62">
-        <v>0.525646334868391</v>
+        <v>-0.06644595672689516</v>
       </c>
       <c r="AO62">
-        <v>0.2460316247142956</v>
+        <v>0.6876823391013496</v>
       </c>
       <c r="AP62">
         <v>0.6876823391013496</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>0.6876823391013496</v>
       </c>
-      <c r="BA62">
-        <v>0.6876823391013496</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.02697729097940962</v>
-      </c>
-      <c r="Z63">
-        <v>0.02930240233575869</v>
-      </c>
-      <c r="AA63">
-        <v>0.02494167517470844</v>
-      </c>
-      <c r="AB63">
-        <v>0.01878626454732816</v>
-      </c>
-      <c r="AC63">
-        <v>0.02109023691295082</v>
-      </c>
-      <c r="AD63">
-        <v>0.02089720317019597</v>
-      </c>
-      <c r="AE63">
-        <v>0.005119719275090345</v>
-      </c>
       <c r="AF63">
-        <v>0.03139301173820318</v>
+        <v>-0.06539915024359451</v>
       </c>
       <c r="AG63">
-        <v>-0.06796262950190152</v>
+        <v>-0.06427734608529004</v>
       </c>
       <c r="AH63">
-        <v>-0.1229137045958319</v>
+        <v>-0.02525303665999755</v>
       </c>
       <c r="AI63">
-        <v>-0.09910721162345185</v>
+        <v>-0.02658868876053085</v>
       </c>
       <c r="AJ63">
-        <v>-0.1019321203655102</v>
+        <v>-0.0177624390263817</v>
       </c>
       <c r="AK63">
-        <v>0.01712819497756507</v>
+        <v>-0.0232727239831933</v>
       </c>
       <c r="AL63">
-        <v>0.144891357622072</v>
+        <v>-0.03328319292524375</v>
       </c>
       <c r="AM63">
-        <v>0.1025119365741192</v>
+        <v>-0.06209778125991745</v>
       </c>
       <c r="AN63">
-        <v>0.3191108565770145</v>
+        <v>-0.07488078575389344</v>
       </c>
       <c r="AO63">
-        <v>0.1567078746426963</v>
+        <v>-0.2334747576324103</v>
       </c>
       <c r="AP63">
-        <v>0.09426016017752531</v>
+        <v>0.3720617293507145</v>
       </c>
       <c r="AQ63">
         <v>0.3720617293507145</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>0.3720617293507145</v>
       </c>
-      <c r="BA63">
-        <v>0.3720617293507145</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.0269770613037038</v>
-      </c>
-      <c r="Z64">
-        <v>0.02930252691620102</v>
-      </c>
-      <c r="AA64">
-        <v>0.02494163677340054</v>
-      </c>
-      <c r="AB64">
-        <v>0.01878747610912721</v>
-      </c>
-      <c r="AC64">
-        <v>0.02104813022934951</v>
-      </c>
-      <c r="AD64">
-        <v>0.02083523433904057</v>
-      </c>
-      <c r="AE64">
-        <v>0.004938066478758975</v>
-      </c>
-      <c r="AF64">
-        <v>0.03143055076191513</v>
-      </c>
       <c r="AG64">
-        <v>-0.05767964654676247</v>
+        <v>-0.06417939805736347</v>
       </c>
       <c r="AH64">
-        <v>-0.08840707400732152</v>
+        <v>-0.02523064949356051</v>
       </c>
       <c r="AI64">
-        <v>-0.0809392756138792</v>
+        <v>-0.02651544128780738</v>
       </c>
       <c r="AJ64">
-        <v>-0.08468076261972952</v>
+        <v>-0.01783095319242923</v>
       </c>
       <c r="AK64">
-        <v>0.01471174725476715</v>
+        <v>-0.02334819395282</v>
       </c>
       <c r="AL64">
-        <v>0.01133467464339383</v>
+        <v>-0.03355708627103973</v>
       </c>
       <c r="AM64">
-        <v>0.00957821079517357</v>
+        <v>-0.05666506112519633</v>
       </c>
       <c r="AN64">
-        <v>0.1049577299700916</v>
+        <v>-0.06967445089048095</v>
       </c>
       <c r="AO64">
-        <v>-0.05532999585862827</v>
+        <v>-0.09581727599070911</v>
       </c>
       <c r="AP64">
-        <v>0.05424942107144015</v>
+        <v>-0.2154708798815534</v>
       </c>
       <c r="AQ64">
-        <v>-0.04186402640699205</v>
+        <v>-0.1123255314657629</v>
       </c>
       <c r="AR64">
         <v>-0.1123255314657629</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>-0.1123255314657629</v>
       </c>
-      <c r="BA64">
-        <v>-0.1123255314657629</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.02103026070902776</v>
-      </c>
-      <c r="AD65">
-        <v>0.02081461856236981</v>
-      </c>
-      <c r="AE65">
-        <v>0.004991375408629218</v>
-      </c>
-      <c r="AF65">
-        <v>0.03062763817048911</v>
-      </c>
-      <c r="AG65">
-        <v>-0.04883074656682358</v>
-      </c>
       <c r="AH65">
-        <v>-0.07119699968812539</v>
+        <v>-0.02523009659208153</v>
       </c>
       <c r="AI65">
-        <v>-0.07231543765457471</v>
+        <v>-0.02652786747291925</v>
       </c>
       <c r="AJ65">
-        <v>-0.07657823006418668</v>
+        <v>-0.01784625191843642</v>
       </c>
       <c r="AK65">
-        <v>0.01477978345504005</v>
+        <v>-0.02335851516881196</v>
       </c>
       <c r="AL65">
-        <v>0.01136462962759627</v>
+        <v>-0.03392842091091917</v>
       </c>
       <c r="AM65">
-        <v>0.009589036466973899</v>
+        <v>-0.05723698098588997</v>
       </c>
       <c r="AN65">
-        <v>0.002036387737466394</v>
+        <v>-0.0701145865670933</v>
       </c>
       <c r="AO65">
-        <v>0.1061398421261345</v>
+        <v>-0.03920871546302438</v>
       </c>
       <c r="AP65">
-        <v>0.02003703068661633</v>
+        <v>-0.06200912845144677</v>
       </c>
       <c r="AQ65">
-        <v>-0.004245937762256791</v>
+        <v>-0.08879942808745578</v>
       </c>
       <c r="AR65">
-        <v>0.04787244502181393</v>
+        <v>-0.1387895598915543</v>
       </c>
       <c r="AS65">
         <v>-0.1387895598915543</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>-0.1387895598915543</v>
       </c>
-      <c r="BA65">
-        <v>-0.1387895598915543</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.02102563999702657</v>
-      </c>
-      <c r="AD66">
-        <v>0.0208106390635574</v>
-      </c>
-      <c r="AE66">
-        <v>0.005047302587971611</v>
-      </c>
-      <c r="AF66">
-        <v>0.03061393020942418</v>
-      </c>
-      <c r="AG66">
-        <v>-0.05216352749740991</v>
-      </c>
-      <c r="AH66">
-        <v>-0.08196033417958326</v>
-      </c>
       <c r="AI66">
-        <v>-0.07599176770753673</v>
+        <v>-0.02653106132662241</v>
       </c>
       <c r="AJ66">
-        <v>-0.08038275635280598</v>
+        <v>-0.01783939828787551</v>
       </c>
       <c r="AK66">
-        <v>0.01485613646721295</v>
+        <v>-0.02335230992540857</v>
       </c>
       <c r="AL66">
-        <v>0.01140350262701373</v>
+        <v>-0.03384225887767063</v>
       </c>
       <c r="AM66">
-        <v>0.0096262989585717</v>
+        <v>-0.05752332203498588</v>
       </c>
       <c r="AN66">
-        <v>0.002029828259684563</v>
+        <v>-0.07044448930637828</v>
       </c>
       <c r="AO66">
-        <v>-0.09377001350213054</v>
+        <v>-0.06486026331182675</v>
       </c>
       <c r="AP66">
-        <v>-0.02492333770823285</v>
+        <v>-0.0392140514095784</v>
       </c>
       <c r="AQ66">
-        <v>-0.01160829470291058</v>
+        <v>-0.04907807753461134</v>
       </c>
       <c r="AR66">
-        <v>0.007654823210518802</v>
+        <v>-0.04345517064725989</v>
       </c>
       <c r="AS66">
-        <v>-0.02286568139701101</v>
+        <v>0.1213803088128225</v>
       </c>
       <c r="AT66">
         <v>0.1213803088128225</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>0.1213803088128225</v>
       </c>
-      <c r="BA66">
-        <v>0.1213803088128225</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.02102493842789685</v>
-      </c>
-      <c r="AD67">
-        <v>0.02081053965963737</v>
-      </c>
-      <c r="AE67">
-        <v>0.005063916122257096</v>
-      </c>
-      <c r="AF67">
-        <v>0.03083378583094853</v>
-      </c>
-      <c r="AG67">
-        <v>-0.05316171950589805</v>
-      </c>
-      <c r="AH67">
-        <v>-0.08249246147707731</v>
-      </c>
-      <c r="AI67">
-        <v>-0.07621743211878071</v>
-      </c>
       <c r="AJ67">
-        <v>-0.08054364807435783</v>
+        <v>-0.01783974720060207</v>
       </c>
       <c r="AK67">
-        <v>-0.07805013619018346</v>
+        <v>-0.0233528569237803</v>
       </c>
       <c r="AL67">
-        <v>-0.05658704284924346</v>
+        <v>-0.03383503291216101</v>
       </c>
       <c r="AM67">
-        <v>-0.07619250393494567</v>
+        <v>-0.05742666648538389</v>
       </c>
       <c r="AN67">
-        <v>-0.06630814667155382</v>
+        <v>-0.07033697142993778</v>
       </c>
       <c r="AO67">
-        <v>-0.1328506734947441</v>
+        <v>-0.06450953157877141</v>
       </c>
       <c r="AP67">
-        <v>-0.1177361515802786</v>
+        <v>-0.05842162404037918</v>
       </c>
       <c r="AQ67">
-        <v>-0.07198578413329731</v>
+        <v>-0.05959340492883847</v>
       </c>
       <c r="AR67">
-        <v>0.03656768315454328</v>
+        <v>-0.06120742416404013</v>
       </c>
       <c r="AS67">
-        <v>0.04786242496979198</v>
+        <v>-0.0890747586229776</v>
       </c>
       <c r="AT67">
-        <v>0.14972076012991</v>
+        <v>-0.07951810869463416</v>
       </c>
       <c r="AU67">
         <v>-0.07951810869463416</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>-0.07951810869463416</v>
       </c>
-      <c r="BA67">
-        <v>-0.07951810869463416</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.02102496667971312</v>
-      </c>
-      <c r="AD68">
-        <v>0.02081080491520372</v>
-      </c>
-      <c r="AE68">
-        <v>0.005061937061272908</v>
-      </c>
-      <c r="AF68">
-        <v>0.03083847854834347</v>
-      </c>
-      <c r="AG68">
-        <v>-0.05240089486608263</v>
-      </c>
-      <c r="AH68">
-        <v>-0.08034400476836526</v>
-      </c>
-      <c r="AI68">
-        <v>-0.07577063417024472</v>
-      </c>
-      <c r="AJ68">
-        <v>-0.08005203449583004</v>
-      </c>
       <c r="AK68">
-        <v>-0.05714655690320367</v>
+        <v>-0.02335311140682957</v>
       </c>
       <c r="AL68">
-        <v>-0.04209229095399103</v>
+        <v>-0.03384176865308251</v>
       </c>
       <c r="AM68">
-        <v>-0.05725823131602766</v>
+        <v>-0.05742433962136514</v>
       </c>
       <c r="AN68">
-        <v>-0.05215727893333339</v>
+        <v>-0.07033333876305656</v>
       </c>
       <c r="AO68">
-        <v>-0.1664707148753987</v>
+        <v>-0.06215738663145323</v>
       </c>
       <c r="AP68">
-        <v>-0.08415594628777828</v>
+        <v>-0.05651244676398612</v>
       </c>
       <c r="AQ68">
-        <v>-0.08332778358683041</v>
+        <v>-0.06104662171891438</v>
       </c>
       <c r="AR68">
-        <v>0.03352541177798907</v>
+        <v>-0.06636263528155445</v>
       </c>
       <c r="AS68">
-        <v>0.09950343914302062</v>
+        <v>-0.06846903848112015</v>
       </c>
       <c r="AT68">
-        <v>0.08745366667497922</v>
+        <v>-0.06426767022353085</v>
       </c>
       <c r="AU68">
-        <v>0.009403759561997849</v>
+        <v>0.3863682696630121</v>
       </c>
       <c r="AV68">
         <v>0.3863682696630121</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>0.3863682696630121</v>
       </c>
-      <c r="BA68">
-        <v>0.3863682696630121</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>-0.05235402912728627</v>
-      </c>
-      <c r="AH69">
-        <v>-0.08078140560842811</v>
-      </c>
-      <c r="AI69">
-        <v>-0.07583328845569369</v>
-      </c>
-      <c r="AJ69">
-        <v>-0.08013773817798271</v>
-      </c>
-      <c r="AK69">
-        <v>-0.05431531528253049</v>
-      </c>
       <c r="AL69">
-        <v>-0.04019646511115119</v>
+        <v>-0.03384096893866351</v>
       </c>
       <c r="AM69">
-        <v>-0.05371125963501832</v>
+        <v>-0.05743183349209144</v>
       </c>
       <c r="AN69">
-        <v>-0.04934060832678087</v>
+        <v>-0.07034291118708684</v>
       </c>
       <c r="AO69">
-        <v>-0.1684586110880257</v>
+        <v>-0.0627145595154889</v>
       </c>
       <c r="AP69">
-        <v>-0.08504876443376963</v>
+        <v>-0.05511217486780487</v>
       </c>
       <c r="AQ69">
-        <v>-0.1131798574908991</v>
+        <v>-0.05977167963749008</v>
       </c>
       <c r="AR69">
-        <v>-0.01708030448454168</v>
+        <v>-0.06360737615195733</v>
       </c>
       <c r="AS69">
-        <v>0.04366025772770143</v>
+        <v>-0.0534672514784636</v>
       </c>
       <c r="AT69">
-        <v>-0.01290251450455254</v>
+        <v>-0.04914528189371955</v>
       </c>
       <c r="AU69">
-        <v>0.01911125784178286</v>
+        <v>-0.1285496771258043</v>
       </c>
       <c r="AV69">
-        <v>0.1356867276728378</v>
+        <v>-0.006123215295980228</v>
       </c>
       <c r="AW69">
         <v>-0.006123215295980228</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>-0.006123215295980228</v>
       </c>
-      <c r="BA69">
-        <v>-0.006123215295980228</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>-0.05249679912841873</v>
-      </c>
-      <c r="AH70">
-        <v>-0.08107437026112083</v>
-      </c>
-      <c r="AI70">
-        <v>-0.07586997428767478</v>
-      </c>
-      <c r="AJ70">
-        <v>-0.08017850967012352</v>
-      </c>
-      <c r="AK70">
-        <v>-0.05664806610678351</v>
-      </c>
-      <c r="AL70">
-        <v>-0.04166378016761033</v>
-      </c>
       <c r="AM70">
-        <v>-0.0561983857897048</v>
+        <v>-0.05743056488326801</v>
       </c>
       <c r="AN70">
-        <v>-0.0511138393296502</v>
+        <v>-0.07034113167436101</v>
       </c>
       <c r="AO70">
-        <v>-0.1705258633492784</v>
+        <v>-0.06281329457086636</v>
       </c>
       <c r="AP70">
-        <v>-0.08600372874886963</v>
+        <v>-0.05558650538698209</v>
       </c>
       <c r="AQ70">
-        <v>-0.06187304826598677</v>
+        <v>-0.05990556461898659</v>
       </c>
       <c r="AR70">
-        <v>0.04008991775232901</v>
+        <v>-0.06370955251042523</v>
       </c>
       <c r="AS70">
-        <v>0.04118292505508081</v>
+        <v>-0.05853820834045519</v>
       </c>
       <c r="AT70">
-        <v>-0.01660026649649948</v>
+        <v>-0.05376615586347216</v>
       </c>
       <c r="AU70">
-        <v>-0.01809258390562279</v>
+        <v>-0.06017625857797777</v>
       </c>
       <c r="AV70">
-        <v>0.1162802086726421</v>
+        <v>-0.07966897163516996</v>
       </c>
       <c r="AW70">
-        <v>-0.01970259187732695</v>
+        <v>0.04342916022020096</v>
       </c>
       <c r="AX70">
         <v>0.04342916022020096</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>0.04342916022020096</v>
       </c>
-      <c r="BA70">
-        <v>0.04342916022020096</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>-0.05248071611795408</v>
-      </c>
-      <c r="AH71">
-        <v>-0.08091923528099851</v>
-      </c>
-      <c r="AI71">
-        <v>-0.07585593783347545</v>
-      </c>
-      <c r="AJ71">
-        <v>-0.08015949820985387</v>
-      </c>
-      <c r="AK71">
-        <v>-0.05635269926454421</v>
-      </c>
-      <c r="AL71">
-        <v>-0.04148994798724767</v>
-      </c>
-      <c r="AM71">
-        <v>-0.0559688414959803</v>
-      </c>
       <c r="AN71">
-        <v>-0.05098353212150804</v>
+        <v>-0.070340735569383</v>
       </c>
       <c r="AO71">
-        <v>-0.01823169358394345</v>
+        <v>-0.06273851368225591</v>
       </c>
       <c r="AP71">
-        <v>-0.02667002544935358</v>
+        <v>-0.0556179458853474</v>
       </c>
       <c r="AQ71">
-        <v>-0.02377839736311245</v>
+        <v>-0.05999499369646813</v>
       </c>
       <c r="AR71">
-        <v>-0.04495083535541339</v>
+        <v>-0.06394572793506335</v>
       </c>
       <c r="AS71">
-        <v>-0.04500250401071754</v>
+        <v>-0.05884518623495071</v>
       </c>
       <c r="AT71">
-        <v>-0.04878197739543944</v>
+        <v>-0.05416362227310814</v>
       </c>
       <c r="AU71">
-        <v>-0.05268839126638541</v>
+        <v>-0.02725103102591113</v>
       </c>
       <c r="AV71">
-        <v>0.002845939268696196</v>
+        <v>-0.02639161525587721</v>
       </c>
       <c r="AW71">
-        <v>-0.040971934992417</v>
+        <v>-0.0418747243109104</v>
       </c>
       <c r="AX71">
-        <v>-0.030588343433577</v>
+        <v>-0.2736421272901388</v>
       </c>
       <c r="AY71">
         <v>-0.2736421272901388</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>-0.2736421272901388</v>
       </c>
-      <c r="BA71">
-        <v>-0.2736421272901388</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>-0.05245817403078571</v>
-      </c>
-      <c r="AH72">
-        <v>-0.08090315596211557</v>
-      </c>
-      <c r="AI72">
-        <v>-0.07585466445526506</v>
-      </c>
-      <c r="AJ72">
-        <v>-0.08015866025765427</v>
-      </c>
-      <c r="AK72">
-        <v>-0.05622996004454785</v>
-      </c>
-      <c r="AL72">
-        <v>-0.04141939889416253</v>
-      </c>
-      <c r="AM72">
-        <v>-0.05579561008534729</v>
-      </c>
-      <c r="AN72">
-        <v>-0.05086139623065727</v>
-      </c>
       <c r="AO72">
-        <v>-0.05321133314853144</v>
+        <v>-0.06274581691619899</v>
       </c>
       <c r="AP72">
-        <v>-0.04002978118429167</v>
+        <v>-0.05556680155534868</v>
       </c>
       <c r="AQ72">
-        <v>-0.03719495552999733</v>
+        <v>-0.05996385805882982</v>
       </c>
       <c r="AR72">
-        <v>-0.03178080763841102</v>
+        <v>-0.063886051662201</v>
       </c>
       <c r="AS72">
-        <v>-0.04542403605375267</v>
+        <v>-0.05831365966029665</v>
       </c>
       <c r="AT72">
-        <v>-0.04721862805520066</v>
+        <v>-0.05365617405801865</v>
       </c>
       <c r="AU72">
-        <v>-0.0512784023773446</v>
+        <v>-0.04072405637530217</v>
       </c>
       <c r="AV72">
-        <v>-0.1188927610541842</v>
+        <v>-0.03104432075325148</v>
       </c>
       <c r="AW72">
-        <v>-0.0314060637200623</v>
+        <v>-0.02790593805570086</v>
       </c>
       <c r="AX72">
-        <v>-0.02751936804534089</v>
+        <v>0.01795644609505821</v>
       </c>
       <c r="AY72">
-        <v>0.006009269086450612</v>
+        <v>-0.1489623566660376</v>
       </c>
       <c r="AZ72">
         <v>-0.1489623566660376</v>
       </c>
-      <c r="BA72">
-        <v>-0.1489623566660376</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>-0.05628154207318938</v>
-      </c>
-      <c r="AL73">
-        <v>-0.0414471911904749</v>
-      </c>
-      <c r="AM73">
-        <v>-0.05585450005188212</v>
-      </c>
-      <c r="AN73">
-        <v>-0.05089764417632323</v>
-      </c>
-      <c r="AO73">
-        <v>-0.06041677860902904</v>
-      </c>
       <c r="AP73">
-        <v>-0.04288045954160857</v>
+        <v>-0.05557463094793752</v>
       </c>
       <c r="AQ73">
-        <v>-0.03796914301535588</v>
+        <v>-0.05996215400038887</v>
       </c>
       <c r="AR73">
-        <v>-0.02630456326578822</v>
+        <v>-0.0638766114047946</v>
       </c>
       <c r="AS73">
-        <v>-0.04638725981378089</v>
+        <v>-0.05839791343928241</v>
       </c>
       <c r="AT73">
-        <v>-0.04835835199243815</v>
+        <v>-0.05372806928852927</v>
       </c>
       <c r="AU73">
-        <v>-0.05240184130703002</v>
+        <v>-0.04085746015796081</v>
       </c>
       <c r="AV73">
-        <v>-0.1152283597503863</v>
+        <v>-0.03508189124308031</v>
       </c>
       <c r="AW73">
-        <v>-0.02219884340202027</v>
+        <v>-0.02261360093602882</v>
       </c>
       <c r="AX73">
-        <v>-0.0577421300680567</v>
+        <v>-0.01531635547100442</v>
       </c>
       <c r="AY73">
-        <v>-0.08261720430245729</v>
+        <v>0.01749702985634924</v>
       </c>
       <c r="AZ73">
-        <v>-0.1068176387908719</v>
-      </c>
-      <c r="BA73">
         <v>-0.1051295019602515</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>-0.0562798885550666</v>
-      </c>
-      <c r="AL74">
-        <v>-0.04144643923309668</v>
-      </c>
-      <c r="AM74">
-        <v>-0.05585709867060818</v>
-      </c>
-      <c r="AN74">
-        <v>-0.05090040941633892</v>
-      </c>
-      <c r="AO74">
-        <v>-0.05524069936384642</v>
-      </c>
-      <c r="AP74">
-        <v>-0.04091006183307044</v>
-      </c>
       <c r="AQ74">
-        <v>-0.03648488864216043</v>
+        <v>-0.05996538301150363</v>
       </c>
       <c r="AR74">
-        <v>-0.02881505960020042</v>
+        <v>-0.06388419944396727</v>
       </c>
       <c r="AS74">
-        <v>-0.04738098344615582</v>
+        <v>-0.05842898441824189</v>
       </c>
       <c r="AT74">
-        <v>-0.0495402900845433</v>
+        <v>-0.05375914735002961</v>
       </c>
       <c r="AU74">
-        <v>-0.05355896295959539</v>
+        <v>-0.03957942825238001</v>
       </c>
       <c r="AV74">
-        <v>-0.1153754198081422</v>
+        <v>-0.03375938527494297</v>
       </c>
       <c r="AW74">
-        <v>-0.03912880753781264</v>
+        <v>-0.02515381409845809</v>
       </c>
       <c r="AX74">
-        <v>-0.05098809096008064</v>
+        <v>-0.03662159726639185</v>
       </c>
       <c r="AY74">
-        <v>-0.08223658315428213</v>
+        <v>-0.03135029029767701</v>
       </c>
       <c r="AZ74">
-        <v>-0.05175635427623342</v>
-      </c>
-      <c r="BA74">
-        <v>-0.0512833435461502</v>
+        <v>-0.008135582438522342</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>-0.0562760767505226</v>
-      </c>
-      <c r="AL75">
-        <v>-0.04144456124047932</v>
-      </c>
-      <c r="AM75">
-        <v>-0.05585122410494372</v>
-      </c>
-      <c r="AN75">
-        <v>-0.05089678860681681</v>
-      </c>
-      <c r="AO75">
-        <v>-0.05571333066002493</v>
-      </c>
-      <c r="AP75">
-        <v>-0.04107435640101043</v>
-      </c>
-      <c r="AQ75">
-        <v>-0.03673608727475484</v>
-      </c>
       <c r="AR75">
-        <v>-0.0288000034504164</v>
+        <v>-0.0638834728274587</v>
       </c>
       <c r="AS75">
-        <v>-0.03310326832368844</v>
+        <v>-0.05841465646603666</v>
       </c>
       <c r="AT75">
-        <v>-0.02939116128465411</v>
+        <v>-0.05374594160837725</v>
       </c>
       <c r="AU75">
-        <v>-0.03606884717372312</v>
+        <v>-0.03984397104617343</v>
       </c>
       <c r="AV75">
-        <v>-0.002795671724435683</v>
+        <v>-0.03366508966477486</v>
       </c>
       <c r="AW75">
-        <v>-0.03143794270944608</v>
+        <v>-0.02511263864359867</v>
       </c>
       <c r="AX75">
-        <v>-0.06773296332091031</v>
+        <v>-0.02864389526508941</v>
       </c>
       <c r="AY75">
-        <v>-0.08366254274357127</v>
+        <v>-0.03694517310720555</v>
       </c>
       <c r="AZ75">
-        <v>-0.01080002906529009</v>
-      </c>
-      <c r="BA75">
-        <v>-0.01036947693345963</v>
+        <v>-0.03369302364502628</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>-0.05627706876810757</v>
-      </c>
-      <c r="AL76">
-        <v>-0.04144501683404036</v>
-      </c>
-      <c r="AM76">
-        <v>-0.05585228652356573</v>
-      </c>
-      <c r="AN76">
-        <v>-0.05089730580552371</v>
-      </c>
-      <c r="AO76">
-        <v>-0.05612370895639329</v>
-      </c>
-      <c r="AP76">
-        <v>-0.04123237236501904</v>
-      </c>
-      <c r="AQ76">
-        <v>-0.03682607596343052</v>
-      </c>
-      <c r="AR76">
-        <v>-0.02855567297591799</v>
-      </c>
       <c r="AS76">
-        <v>-0.03615278461843136</v>
+        <v>-0.05841483027657066</v>
       </c>
       <c r="AT76">
-        <v>-0.03370608412678735</v>
+        <v>-0.05374591606881621</v>
       </c>
       <c r="AU76">
-        <v>-0.03983843989266651</v>
+        <v>-0.03990514300700602</v>
       </c>
       <c r="AV76">
-        <v>-0.02723346502438481</v>
+        <v>-0.03381110232598716</v>
       </c>
       <c r="AW76">
-        <v>-0.05137348034012257</v>
+        <v>-0.02487228895393885</v>
       </c>
       <c r="AX76">
-        <v>-0.06234527590047609</v>
+        <v>-0.0283128879105661</v>
       </c>
       <c r="AY76">
-        <v>-0.05316920699206065</v>
+        <v>-0.03092029362678996</v>
       </c>
       <c r="AZ76">
-        <v>-0.001843737716275468</v>
-      </c>
-      <c r="BA76">
-        <v>-0.0001935139967256527</v>
+        <v>-0.03753539993492378</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>-0.05598144911124458</v>
-      </c>
-      <c r="AP77">
-        <v>-0.04118025899203973</v>
-      </c>
-      <c r="AQ77">
-        <v>-0.03678165385604769</v>
-      </c>
-      <c r="AR77">
-        <v>-0.02861120089435442</v>
-      </c>
-      <c r="AS77">
-        <v>-0.0369143666706692</v>
-      </c>
       <c r="AT77">
-        <v>-0.03478268283076496</v>
+        <v>-0.05374712941212454</v>
       </c>
       <c r="AU77">
-        <v>-0.04077375010013847</v>
+        <v>-0.03986736227302778</v>
       </c>
       <c r="AV77">
-        <v>-0.03276632806803344</v>
+        <v>-0.03378817759692787</v>
       </c>
       <c r="AW77">
-        <v>-0.05834206225462621</v>
+        <v>-0.02492940027677222</v>
       </c>
       <c r="AX77">
-        <v>-0.05536442337604136</v>
+        <v>-0.02917005400936737</v>
       </c>
       <c r="AY77">
-        <v>-0.03623907024767829</v>
+        <v>-0.03169622602898518</v>
       </c>
       <c r="AZ77">
-        <v>0.0291747735850228</v>
-      </c>
-      <c r="BA77">
-        <v>0.03023811067352077</v>
+        <v>-0.03420179955431599</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>-0.05597312379846404</v>
-      </c>
-      <c r="AP78">
-        <v>-0.04117641636264312</v>
-      </c>
-      <c r="AQ78">
-        <v>-0.03678262942671232</v>
-      </c>
-      <c r="AR78">
-        <v>-0.02862302208632318</v>
-      </c>
-      <c r="AS78">
-        <v>-0.03644004670628437</v>
-      </c>
-      <c r="AT78">
-        <v>-0.03411189415759873</v>
-      </c>
       <c r="AU78">
-        <v>-0.04018375429572303</v>
+        <v>-0.03986987677373107</v>
       </c>
       <c r="AV78">
-        <v>-0.02921141323082539</v>
+        <v>-0.03377933259298904</v>
       </c>
       <c r="AW78">
-        <v>-0.05539869747975262</v>
+        <v>-0.02494039197093431</v>
       </c>
       <c r="AX78">
-        <v>-0.05681957144201197</v>
+        <v>-0.02901317914382011</v>
       </c>
       <c r="AY78">
-        <v>-0.03618200884957322</v>
+        <v>-0.03211691627183121</v>
       </c>
       <c r="AZ78">
-        <v>0.02920950495857846</v>
-      </c>
-      <c r="BA78">
-        <v>0.03028818005484387</v>
+        <v>-0.03455898595647446</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>-0.05598932748229311</v>
-      </c>
-      <c r="AP79">
-        <v>-0.04118245226850021</v>
-      </c>
-      <c r="AQ79">
-        <v>-0.0367867641073338</v>
-      </c>
-      <c r="AR79">
-        <v>-0.02861492956278225</v>
-      </c>
-      <c r="AS79">
-        <v>-0.03646816786395429</v>
-      </c>
-      <c r="AT79">
-        <v>-0.03415124277198849</v>
-      </c>
-      <c r="AU79">
-        <v>-0.0402200552630689</v>
-      </c>
       <c r="AV79">
-        <v>-0.02945075166771663</v>
+        <v>-0.03378343734607783</v>
       </c>
       <c r="AW79">
-        <v>-0.02867550676712754</v>
+        <v>-0.02493235690514681</v>
       </c>
       <c r="AX79">
-        <v>-0.02910970339067407</v>
+        <v>-0.02896360358918141</v>
       </c>
       <c r="AY79">
-        <v>-0.04215475741152822</v>
+        <v>-0.03194823448513946</v>
       </c>
       <c r="AZ79">
-        <v>-0.06063644928580728</v>
-      </c>
-      <c r="BA79">
-        <v>-0.003272573245561683</v>
+        <v>-0.03480542826383039</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>-0.05598641936615679</v>
-      </c>
-      <c r="AP80">
-        <v>-0.04118146439192292</v>
-      </c>
-      <c r="AQ80">
-        <v>-0.03678575765139824</v>
-      </c>
-      <c r="AR80">
-        <v>-0.02861555335891168</v>
-      </c>
-      <c r="AS80">
-        <v>-0.03650961172563199</v>
-      </c>
-      <c r="AT80">
-        <v>-0.03421003509958652</v>
-      </c>
-      <c r="AU80">
-        <v>-0.04027179813124301</v>
-      </c>
-      <c r="AV80">
-        <v>-0.02974108251341193</v>
-      </c>
       <c r="AW80">
-        <v>-0.03489989238768459</v>
+        <v>-0.02493305165772965</v>
       </c>
       <c r="AX80">
-        <v>-0.03510579601018442</v>
+        <v>-0.02898997532986335</v>
       </c>
       <c r="AY80">
-        <v>-0.04083380291239017</v>
+        <v>-0.03194404236352533</v>
       </c>
       <c r="AZ80">
-        <v>-0.04083415435902937</v>
-      </c>
-      <c r="BA80">
-        <v>-0.003938665823812776</v>
+        <v>-0.03471653925124654</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>-0.03649764530641038</v>
-      </c>
-      <c r="AT81">
-        <v>-0.03419314128987917</v>
-      </c>
-      <c r="AU81">
-        <v>-0.04025661914751318</v>
-      </c>
-      <c r="AV81">
-        <v>-0.02965497691971865</v>
-      </c>
-      <c r="AW81">
-        <v>-0.03618515017109409</v>
-      </c>
       <c r="AX81">
-        <v>-0.03651733880982628</v>
+        <v>-0.02898902018590682</v>
       </c>
       <c r="AY81">
-        <v>-0.04053649538884774</v>
+        <v>-0.03196152051598379</v>
       </c>
       <c r="AZ81">
-        <v>-0.03636177722022838</v>
-      </c>
-      <c r="BA81">
-        <v>-0.02964513896696676</v>
+        <v>-0.03471203318408567</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>-0.03649612167560921</v>
-      </c>
-      <c r="AT82">
-        <v>-0.03419094689555374</v>
-      </c>
-      <c r="AU82">
-        <v>-0.04025474705472076</v>
-      </c>
-      <c r="AV82">
-        <v>-0.02964572186742805</v>
-      </c>
-      <c r="AW82">
-        <v>-0.03527879838620716</v>
-      </c>
-      <c r="AX82">
-        <v>-0.03561162755681355</v>
-      </c>
       <c r="AY82">
-        <v>-0.04073317181852702</v>
+        <v>-0.03195808794583794</v>
       </c>
       <c r="AZ82">
-        <v>-0.03929550503499763</v>
-      </c>
-      <c r="BA82">
-        <v>-0.02966156330908004</v>
+        <v>-0.03472168355201313</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>-0.03649765981364507</v>
-      </c>
-      <c r="AT83">
-        <v>-0.03419312851801509</v>
-      </c>
-      <c r="AU83">
-        <v>-0.04025670184961058</v>
-      </c>
-      <c r="AV83">
-        <v>-0.02965602342377811</v>
-      </c>
-      <c r="AW83">
-        <v>-0.03535169254593273</v>
-      </c>
-      <c r="AX83">
-        <v>-0.03567273203490946</v>
-      </c>
-      <c r="AY83">
-        <v>-0.04071889193012795</v>
-      </c>
       <c r="AZ83">
-        <v>-0.03908871286459643</v>
-      </c>
-      <c r="BA83">
-        <v>-0.04630989393080061</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>-0.03649747358836267</v>
-      </c>
-      <c r="AT84">
-        <v>-0.03419286911321744</v>
-      </c>
-      <c r="AU84">
-        <v>-0.0402564572094703</v>
-      </c>
-      <c r="AV84">
-        <v>-0.02965467715857713</v>
-      </c>
-      <c r="AW84">
-        <v>-0.03542595755103448</v>
-      </c>
-      <c r="AX84">
-        <v>-0.03574875611866836</v>
-      </c>
-      <c r="AY84">
-        <v>-0.04070261238636946</v>
-      </c>
-      <c r="AZ84">
-        <v>-0.03884572499490585</v>
-      </c>
-      <c r="BA84">
-        <v>-0.04262099303857204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>-0.03540220201394952</v>
-      </c>
-      <c r="AX85">
-        <v>-0.0357258681219138</v>
-      </c>
-      <c r="AY85">
-        <v>-0.04070764048617283</v>
-      </c>
-      <c r="AZ85">
-        <v>-0.03891963033928993</v>
-      </c>
-      <c r="BA85">
-        <v>-0.04184931739039945</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>-0.03540006337357511</v>
-      </c>
-      <c r="AX86">
-        <v>-0.03572342182814582</v>
-      </c>
-      <c r="AY86">
-        <v>-0.04070813374374656</v>
-      </c>
-      <c r="AZ86">
-        <v>-0.03892723985477396</v>
-      </c>
-      <c r="BA86">
-        <v>-0.04237225319574942</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>-0.03540290850277975</v>
-      </c>
-      <c r="AX87">
-        <v>-0.03572622722226092</v>
-      </c>
-      <c r="AY87">
-        <v>-0.04070752690983333</v>
-      </c>
-      <c r="AZ87">
-        <v>-0.03891829277971676</v>
-      </c>
-      <c r="BA87">
-        <v>-0.04233007045338463</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>-0.03540249049267647</v>
-      </c>
-      <c r="AX88">
-        <v>-0.03572584750769992</v>
-      </c>
-      <c r="AY88">
-        <v>-0.04070761290977074</v>
-      </c>
-      <c r="AZ88">
-        <v>-0.03891951657720296</v>
-      </c>
-      <c r="BA88">
-        <v>-0.04228951083525678</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>-0.04230251951847293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>-0.0423035088065513</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>-0.04230204831049562</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>-0.04230227738134438</v>
+        <v>-0.0347200047572345</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>-0.1054010357641076</v>
       </c>
       <c r="AG64">
-        <v>2.03040224812923</v>
+        <v>-0.2672013185147806</v>
       </c>
       <c r="AH64">
         <v>3.9</v>
@@ -9166,10 +9166,10 @@
         <v>-0.052100071634148</v>
       </c>
       <c r="AG65">
-        <v>-0.4485939922820067</v>
+        <v>-0.3908756397905542</v>
       </c>
       <c r="AH65">
-        <v>0.4339050167294337</v>
+        <v>-1.165731449023777</v>
       </c>
       <c r="AI65">
         <v>0.6</v>
@@ -9255,13 +9255,13 @@
         <v>-0.05939875319414657</v>
       </c>
       <c r="AG66">
-        <v>0.05775064058154487</v>
+        <v>-0.1516491120502389</v>
       </c>
       <c r="AH66">
-        <v>-0.4648223037085923</v>
+        <v>0.2279118747877362</v>
       </c>
       <c r="AI66">
-        <v>1.197090680270919</v>
+        <v>-0.4946292545328451</v>
       </c>
       <c r="AJ66">
         <v>-0.6</v>
@@ -9341,16 +9341,16 @@
         <v>-0.05553084795367583</v>
       </c>
       <c r="AG67">
-        <v>-0.09358438613063075</v>
+        <v>-0.1570840800859244</v>
       </c>
       <c r="AH67">
-        <v>0.07354256977585988</v>
+        <v>-0.1051777043708762</v>
       </c>
       <c r="AI67">
-        <v>-0.2820145485031504</v>
+        <v>0.06778971455340732</v>
       </c>
       <c r="AJ67">
-        <v>-0.6441697788099752</v>
+        <v>0.1086676194947807</v>
       </c>
       <c r="AK67">
         <v>-0.6</v>
@@ -9424,19 +9424,19 @@
         <v>-0.05621663915425965</v>
       </c>
       <c r="AG68">
-        <v>-0.05588462291703119</v>
+        <v>-0.1343214713312565</v>
       </c>
       <c r="AH68">
-        <v>0.03764835263912085</v>
+        <v>-0.02844774548780462</v>
       </c>
       <c r="AI68">
-        <v>0.1501116289474009</v>
+        <v>0.04862203492004667</v>
       </c>
       <c r="AJ68">
-        <v>0.3373169092958574</v>
+        <v>0.1844844710576326</v>
       </c>
       <c r="AK68">
-        <v>0.4901411037136303</v>
+        <v>0.4447158032453963</v>
       </c>
       <c r="AL68">
         <v>-0.2</v>
@@ -9504,22 +9504,22 @@
         <v>-0.05592745601702422</v>
       </c>
       <c r="AG69">
-        <v>-0.06608513468529707</v>
+        <v>-0.1342321928212778</v>
       </c>
       <c r="AH69">
-        <v>-0.006050028238517913</v>
+        <v>-0.04593331703619739</v>
       </c>
       <c r="AI69">
-        <v>0.08847868971792155</v>
+        <v>-0.00150192905831094</v>
       </c>
       <c r="AJ69">
-        <v>0.1013040049059581</v>
+        <v>0.0034036776212047</v>
       </c>
       <c r="AK69">
-        <v>0.104580444422552</v>
+        <v>0.07659073990163846</v>
       </c>
       <c r="AL69">
-        <v>-0.09098140646410988</v>
+        <v>0.2371680401435531</v>
       </c>
       <c r="AM69">
         <v>0.2</v>
@@ -9581,25 +9581,25 @@
         <v>-0.05598785186526414</v>
       </c>
       <c r="AG70">
-        <v>-0.06342941274125019</v>
+        <v>-0.1320500673209509</v>
       </c>
       <c r="AH70">
-        <v>0.007348963985919974</v>
+        <v>-0.04196160283313059</v>
       </c>
       <c r="AI70">
-        <v>0.08631584100647914</v>
+        <v>0.01149320963263675</v>
       </c>
       <c r="AJ70">
-        <v>-0.03972707615218123</v>
+        <v>0.04124327424702222</v>
       </c>
       <c r="AK70">
-        <v>-0.1012791506702249</v>
+        <v>-0.08082770303377459</v>
       </c>
       <c r="AL70">
-        <v>0.09064498158163641</v>
+        <v>0.04032005313856007</v>
       </c>
       <c r="AM70">
-        <v>-0.3952916234765647</v>
+        <v>-0.05071922741070047</v>
       </c>
       <c r="AN70">
         <v>-1.4</v>
@@ -9655,28 +9655,28 @@
         <v>-0.05596573454570361</v>
       </c>
       <c r="AG71">
-        <v>-0.06413320509557693</v>
+        <v>-0.1319830668231856</v>
       </c>
       <c r="AH71">
-        <v>0.008510525752066721</v>
+        <v>-0.04286285055246991</v>
       </c>
       <c r="AI71">
-        <v>0.09004338159482328</v>
+        <v>0.01345149074012231</v>
       </c>
       <c r="AJ71">
-        <v>0.04355923042075054</v>
+        <v>0.07021223033202072</v>
       </c>
       <c r="AK71">
-        <v>0.05520327757388589</v>
+        <v>0.04919487422026621</v>
       </c>
       <c r="AL71">
-        <v>0.01468632687840788</v>
+        <v>-0.02160725337569868</v>
       </c>
       <c r="AM71">
-        <v>0.05883216145324548</v>
+        <v>-0.02170949984644784</v>
       </c>
       <c r="AN71">
-        <v>-0.2380782088493735</v>
+        <v>0.3007752005608911</v>
       </c>
       <c r="AO71">
         <v>-0.6</v>
@@ -9726,31 +9726,31 @@
         <v>-0.05597087107749584</v>
       </c>
       <c r="AG72">
-        <v>-0.06394821863840626</v>
+        <v>-0.131772313065508</v>
       </c>
       <c r="AH72">
-        <v>0.006955469578486399</v>
+        <v>-0.04265840470698136</v>
       </c>
       <c r="AI72">
-        <v>0.08898695947065459</v>
+        <v>0.01175960002426226</v>
       </c>
       <c r="AJ72">
-        <v>0.05149897670508174</v>
+        <v>0.05300721967267838</v>
       </c>
       <c r="AK72">
-        <v>0.07361894048677207</v>
+        <v>0.05355732470341684</v>
       </c>
       <c r="AL72">
-        <v>-0.02569390857036204</v>
+        <v>0.04047080777384581</v>
       </c>
       <c r="AM72">
-        <v>0.15034024113169</v>
+        <v>0.05234293492814317</v>
       </c>
       <c r="AN72">
-        <v>0.5201143357573609</v>
+        <v>0.3872349379103772</v>
       </c>
       <c r="AO72">
-        <v>-0.02511582766690132</v>
+        <v>0.2909811857727292</v>
       </c>
       <c r="AP72">
         <v>-0.1</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>-0.06399702571675162</v>
+        <v>-0.1317602518072034</v>
       </c>
       <c r="AH73">
-        <v>0.007197333490894748</v>
+        <v>-0.04270477843202872</v>
       </c>
       <c r="AI73">
-        <v>0.08913210885017857</v>
+        <v>0.01194631614128436</v>
       </c>
       <c r="AJ73">
-        <v>0.03254994313469846</v>
+        <v>0.05174508756256645</v>
       </c>
       <c r="AK73">
-        <v>0.02603474330856966</v>
+        <v>0.02093683447326427</v>
       </c>
       <c r="AL73">
-        <v>0.007616221598997242</v>
+        <v>0.04147774784617116</v>
       </c>
       <c r="AM73">
-        <v>-0.01753399216366653</v>
+        <v>0.02482419491073158</v>
       </c>
       <c r="AN73">
-        <v>-0.03812982185035306</v>
+        <v>-0.1776277501685884</v>
       </c>
       <c r="AO73">
-        <v>0.1894073304522926</v>
+        <v>0.1499767807139307</v>
       </c>
       <c r="AP73">
-        <v>0.6876823391013496</v>
+        <v>0.3288853845596842</v>
       </c>
       <c r="AQ73">
         <v>0.1</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>-0.06398417096290905</v>
-      </c>
       <c r="AH74">
-        <v>0.007292119451502429</v>
+        <v>-0.04269425994431776</v>
       </c>
       <c r="AI74">
-        <v>0.08913912103324084</v>
+        <v>0.01206841433436221</v>
       </c>
       <c r="AJ74">
-        <v>0.03566276262371278</v>
+        <v>0.05596640623634157</v>
       </c>
       <c r="AK74">
-        <v>0.03259904549552769</v>
+        <v>0.02835015437021739</v>
       </c>
       <c r="AL74">
-        <v>0.0128555925461768</v>
+        <v>0.02610728417078322</v>
       </c>
       <c r="AM74">
-        <v>-0.00964093495214708</v>
+        <v>0.007591301103019737</v>
       </c>
       <c r="AN74">
-        <v>-0.2014724630006378</v>
+        <v>-0.07445093348857254</v>
       </c>
       <c r="AO74">
-        <v>-0.05270612891795398</v>
+        <v>-0.143476597187774</v>
       </c>
       <c r="AP74">
-        <v>-0.1365885249587824</v>
+        <v>-0.04707319872192598</v>
       </c>
       <c r="AQ74">
-        <v>0.3720617293507145</v>
+        <v>-0.04437064751059491</v>
       </c>
       <c r="AR74">
         <v>0.7</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.007247256038200207</v>
-      </c>
       <c r="AI75">
-        <v>0.08912974357910283</v>
+        <v>0.01202321905789579</v>
       </c>
       <c r="AJ75">
-        <v>0.03874598177063717</v>
+        <v>0.05497153051785753</v>
       </c>
       <c r="AK75">
-        <v>0.04409459075219761</v>
+        <v>0.0343250766711968</v>
       </c>
       <c r="AL75">
-        <v>0.001086275848319654</v>
+        <v>0.02935234461640292</v>
       </c>
       <c r="AM75">
-        <v>0.04307418305558035</v>
+        <v>0.02071749600885954</v>
       </c>
       <c r="AN75">
-        <v>0.02839413569925489</v>
+        <v>0.08259351828263128</v>
       </c>
       <c r="AO75">
-        <v>-0.07841193976960364</v>
+        <v>-0.03427528209235998</v>
       </c>
       <c r="AP75">
-        <v>-0.2516977429823907</v>
+        <v>-0.1201365340373372</v>
       </c>
       <c r="AQ75">
-        <v>-0.1462609076946982</v>
+        <v>-0.04842618729466627</v>
       </c>
       <c r="AR75">
-        <v>-0.1123255314657629</v>
+        <v>-0.3672931947423395</v>
       </c>
       <c r="AS75">
         <v>-0.6</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.08913232343523439</v>
-      </c>
       <c r="AJ76">
-        <v>0.03734216870663491</v>
+        <v>0.0543303132674335</v>
       </c>
       <c r="AK76">
-        <v>0.03947668948160174</v>
+        <v>0.03097841478346306</v>
       </c>
       <c r="AL76">
-        <v>0.002101659879930158</v>
+        <v>0.03236447409584225</v>
       </c>
       <c r="AM76">
-        <v>0.02870823620129918</v>
+        <v>0.02308213029055412</v>
       </c>
       <c r="AN76">
-        <v>0.04267039205549577</v>
+        <v>0.01315581546043704</v>
       </c>
       <c r="AO76">
-        <v>0.01058461922847219</v>
+        <v>0.04990265245378057</v>
       </c>
       <c r="AP76">
-        <v>0.09109274817789845</v>
+        <v>0.02929550448463478</v>
       </c>
       <c r="AQ76">
-        <v>-0.1292422710332312</v>
+        <v>0.005943056391700325</v>
       </c>
       <c r="AR76">
-        <v>-0.2484423261479351</v>
+        <v>-0.2165329584102027</v>
       </c>
       <c r="AS76">
-        <v>-0.1387895598915543</v>
+        <v>-0.2349251492717611</v>
       </c>
       <c r="AT76">
         <v>0.2</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.03706449558668247</v>
-      </c>
       <c r="AK77">
-        <v>0.03744090247500876</v>
+        <v>0.03040040492255015</v>
       </c>
       <c r="AL77">
-        <v>0.005607549870261998</v>
+        <v>0.03088889270289182</v>
       </c>
       <c r="AM77">
-        <v>0.01481677260266613</v>
+        <v>0.01825448251309522</v>
       </c>
       <c r="AN77">
-        <v>-0.04187099438155158</v>
+        <v>-0.02106412776675788</v>
       </c>
       <c r="AO77">
-        <v>0.001629216293689319</v>
+        <v>-0.006229391903661431</v>
       </c>
       <c r="AP77">
-        <v>0.05735271939867046</v>
+        <v>0.02363466195007262</v>
       </c>
       <c r="AQ77">
-        <v>0.06270992980461385</v>
+        <v>-0.004969194278935392</v>
       </c>
       <c r="AR77">
-        <v>0.08842714827491341</v>
+        <v>0.1676424714550495</v>
       </c>
       <c r="AS77">
-        <v>0.2519950980979215</v>
+        <v>0.2748338964452498</v>
       </c>
       <c r="AT77">
-        <v>0.1213803088128225</v>
+        <v>0.1477315643901598</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.03921001915601131</v>
-      </c>
       <c r="AL78">
-        <v>0.00448711212405122</v>
+        <v>0.03048929642365995</v>
       </c>
       <c r="AM78">
-        <v>0.02258981925473155</v>
+        <v>0.01867093525510054</v>
       </c>
       <c r="AN78">
-        <v>-0.03082031162561811</v>
+        <v>0.009108176603781836</v>
       </c>
       <c r="AO78">
-        <v>-0.02739155558263393</v>
+        <v>-0.02544552130450289</v>
       </c>
       <c r="AP78">
-        <v>-0.06664465363361946</v>
+        <v>-0.02840089320289539</v>
       </c>
       <c r="AQ78">
-        <v>0.01189833417362927</v>
+        <v>-0.02260418641754727</v>
       </c>
       <c r="AR78">
-        <v>0.07161528862875484</v>
+        <v>0.02645060899003516</v>
       </c>
       <c r="AS78">
-        <v>-0.01047193916601444</v>
+        <v>0.02309918749673102</v>
       </c>
       <c r="AT78">
-        <v>-0.09752764704723059</v>
+        <v>-0.1046885644149391</v>
       </c>
       <c r="AU78">
-        <v>-0.07951810869463416</v>
+        <v>-0.1423875156511647</v>
       </c>
       <c r="AV78">
         <v>0.3</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.003628955256981866</v>
-      </c>
       <c r="AM79">
-        <v>0.02535762121257027</v>
+        <v>0.02013162535685407</v>
       </c>
       <c r="AN79">
-        <v>-0.002837882298983989</v>
+        <v>0.01307963338914031</v>
       </c>
       <c r="AO79">
-        <v>-0.01846759246750924</v>
+        <v>-0.001373014470814823</v>
       </c>
       <c r="AP79">
-        <v>-0.02548606767517079</v>
+        <v>-0.01534899122514347</v>
       </c>
       <c r="AQ79">
-        <v>-0.04889738440899678</v>
+        <v>-0.01453827242588172</v>
       </c>
       <c r="AR79">
-        <v>-0.05316225685740456</v>
+        <v>-0.09319938722784434</v>
       </c>
       <c r="AS79">
-        <v>-0.10719057562779</v>
+        <v>-0.1229088648918345</v>
       </c>
       <c r="AT79">
-        <v>-0.02165036546438159</v>
+        <v>-0.03178037713020498</v>
       </c>
       <c r="AU79">
-        <v>0.008426813086470919</v>
+        <v>0.03672667038412315</v>
       </c>
       <c r="AV79">
-        <v>0.3863682696630121</v>
+        <v>-0.1712976904262997</v>
       </c>
       <c r="AW79">
         <v>-0.1</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.02221514158130296</v>
-      </c>
       <c r="AN80">
-        <v>-0.01211076139649806</v>
+        <v>0.002494008451920393</v>
       </c>
       <c r="AO80">
-        <v>-0.01020886539472937</v>
+        <v>0.0007759350417792694</v>
       </c>
       <c r="AP80">
-        <v>0.0127829445064406</v>
+        <v>0.0004210643056893164</v>
       </c>
       <c r="AQ80">
-        <v>-0.01563830183663631</v>
+        <v>-0.009851733392760536</v>
       </c>
       <c r="AR80">
-        <v>-0.02134950892280235</v>
+        <v>-0.01245065153733274</v>
       </c>
       <c r="AS80">
-        <v>0.01556856394519909</v>
+        <v>0.006846918903707864</v>
       </c>
       <c r="AT80">
-        <v>0.04523841625208874</v>
+        <v>0.04784072463408408</v>
       </c>
       <c r="AU80">
-        <v>0.01925922851672483</v>
+        <v>0.05134372359743421</v>
       </c>
       <c r="AV80">
-        <v>-0.2011031689175148</v>
+        <v>-0.07409559612744232</v>
       </c>
       <c r="AW80">
-        <v>-0.006123215295980228</v>
+        <v>-0.06973190223682513</v>
       </c>
       <c r="AX80">
         <v>-0.9</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>-0.02030120475231276</v>
-      </c>
       <c r="AO81">
-        <v>-0.01495612480994118</v>
+        <v>-0.008336875189437076</v>
       </c>
       <c r="AP81">
-        <v>-0.01172947109422623</v>
+        <v>-0.007573112931149883</v>
       </c>
       <c r="AQ81">
-        <v>-0.00035167870493567</v>
+        <v>-0.01390760860311916</v>
       </c>
       <c r="AR81">
-        <v>0.01965722750142458</v>
+        <v>0.0169300192658625</v>
       </c>
       <c r="AS81">
-        <v>0.02726933341001372</v>
+        <v>0.03637163266066484</v>
       </c>
       <c r="AT81">
-        <v>0.002422880371575082</v>
+        <v>0.003609237214794813</v>
       </c>
       <c r="AU81">
-        <v>-0.01616524385581889</v>
+        <v>-0.01835212821028905</v>
       </c>
       <c r="AV81">
-        <v>-0.1040819504497453</v>
+        <v>0.08292164846456163</v>
       </c>
       <c r="AW81">
-        <v>0.007367089903936905</v>
+        <v>0.03803164275673973</v>
       </c>
       <c r="AX81">
-        <v>0.04342916022020096</v>
+        <v>0.3264502979277185</v>
       </c>
       <c r="AY81">
         <v>-1.2</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>-0.01686343062921042</v>
-      </c>
       <c r="AP82">
-        <v>-0.02085465751782785</v>
+        <v>-0.01149596173217565</v>
       </c>
       <c r="AQ82">
-        <v>-0.01645541485180013</v>
+        <v>-0.01471644319085028</v>
       </c>
       <c r="AR82">
-        <v>-0.0008019423217350066</v>
+        <v>-0.02087964868597663</v>
       </c>
       <c r="AS82">
-        <v>-0.02304660951346922</v>
+        <v>-0.02075656732541642</v>
       </c>
       <c r="AT82">
-        <v>-0.01388012798283517</v>
+        <v>-0.01702732914942295</v>
       </c>
       <c r="AU82">
-        <v>-0.01255634120257245</v>
+        <v>-0.008880481467128911</v>
       </c>
       <c r="AV82">
-        <v>0.09498639262412359</v>
+        <v>0.01401944412383279</v>
       </c>
       <c r="AW82">
-        <v>-0.03427301801064874</v>
+        <v>0.001961603668071833</v>
       </c>
       <c r="AX82">
-        <v>0.2917965963263465</v>
+        <v>0.2318505961559854</v>
       </c>
       <c r="AY82">
-        <v>-0.2736421272901388</v>
+        <v>0.5374408776787802</v>
       </c>
       <c r="AZ82">
         <v>0.9</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>-0.009363934477030444</v>
-      </c>
       <c r="AQ83">
-        <v>-0.01850938375762389</v>
+        <v>-0.01303036244406606</v>
       </c>
       <c r="AR83">
-        <v>-0.01224067557328059</v>
+        <v>-0.02423935365118435</v>
       </c>
       <c r="AS83">
-        <v>-0.01695366278002095</v>
+        <v>-0.02013885809412882</v>
       </c>
       <c r="AT83">
-        <v>0.005762990074501651</v>
+        <v>0.003971506377852308</v>
       </c>
       <c r="AU83">
-        <v>-1.627693402521131E-05</v>
+        <v>0.01499737271074666</v>
       </c>
       <c r="AV83">
-        <v>0.01472175495202318</v>
+        <v>-0.03076063667688923</v>
       </c>
       <c r="AW83">
-        <v>-0.02920491061601137</v>
+        <v>-0.03101901848541379</v>
       </c>
       <c r="AX83">
-        <v>-0.1347662680142063</v>
+        <v>-0.2537476525895095</v>
       </c>
       <c r="AY83">
-        <v>0.3539621902007221</v>
+        <v>0.2710069146292678</v>
       </c>
       <c r="AZ83">
-        <v>-0.1489623566660376</v>
+        <v>0.1798435331191272</v>
       </c>
       <c r="BA83">
         <v>-0.7</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>-0.01194850054110494</v>
-      </c>
       <c r="AR84">
-        <v>-0.002124726483854421</v>
+        <v>-0.008764427383978302</v>
       </c>
       <c r="AS84">
-        <v>0.001364267989179031</v>
+        <v>0.002109172094683343</v>
       </c>
       <c r="AT84">
-        <v>0.007796958122766548</v>
+        <v>0.007309254317241189</v>
       </c>
       <c r="AU84">
-        <v>-0.004093234805732641</v>
+        <v>0.006370905556455999</v>
       </c>
       <c r="AV84">
-        <v>-0.04229329896270594</v>
+        <v>0.004361231187825682</v>
       </c>
       <c r="AW84">
-        <v>-0.01353781154378274</v>
+        <v>-0.009735703104090453</v>
       </c>
       <c r="AX84">
-        <v>-0.1368355339965506</v>
+        <v>-0.09489494490492142</v>
       </c>
       <c r="AY84">
-        <v>-0.05075374960675554</v>
+        <v>-0.3264051876140091</v>
       </c>
       <c r="AZ84">
-        <v>-0.3959751124900958</v>
+        <v>-0.4593879735568319</v>
       </c>
       <c r="BA84">
-        <v>-0.1051295019602515</v>
+        <v>-0.1047373886068518</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.0001680743349557435</v>
-      </c>
       <c r="AS85">
-        <v>-0.004888324345864056</v>
+        <v>-0.00287772103948572</v>
       </c>
       <c r="AT85">
-        <v>-6.786446354844914E-05</v>
+        <v>-0.0012975766035299</v>
       </c>
       <c r="AU85">
-        <v>-0.007925207648816407</v>
+        <v>-0.0006588535719245408</v>
       </c>
       <c r="AV85">
-        <v>0.0003867541576033596</v>
+        <v>0.01394126029323193</v>
       </c>
       <c r="AW85">
-        <v>-0.01957441992126829</v>
+        <v>-0.001971413627707469</v>
       </c>
       <c r="AX85">
-        <v>0.03133289761379731</v>
+        <v>0.0674724642825914</v>
       </c>
       <c r="AY85">
-        <v>-0.2083631755213902</v>
+        <v>-0.1232996424682076</v>
       </c>
       <c r="AZ85">
-        <v>0.06550133282979273</v>
+        <v>-0.0543496034484027</v>
       </c>
       <c r="BA85">
-        <v>0.1814699512842053</v>
+        <v>0.1715297545448939</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>-0.01070296915794403</v>
-      </c>
       <c r="AT86">
-        <v>0.0008188910668128504</v>
+        <v>-0.0007384961497854088</v>
       </c>
       <c r="AU86">
-        <v>-0.005560829614006273</v>
+        <v>0.004050575134226861</v>
       </c>
       <c r="AV86">
-        <v>0.01237802287142501</v>
+        <v>-0.001229695658759979</v>
       </c>
       <c r="AW86">
-        <v>-0.02442183807704981</v>
+        <v>-0.01187031584952652</v>
       </c>
       <c r="AX86">
-        <v>-0.005534029700704539</v>
+        <v>-0.03843126301042682</v>
       </c>
       <c r="AY86">
-        <v>-0.04792450020976103</v>
+        <v>0.06264240308728028</v>
       </c>
       <c r="AZ86">
-        <v>0.06821529545558283</v>
+        <v>0.115928503999926</v>
       </c>
       <c r="BA86">
-        <v>-0.08051822560468189</v>
+        <v>-0.08955556109981566</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.003609502857125762</v>
-      </c>
       <c r="AU87">
-        <v>-0.004632452034608979</v>
+        <v>0.00565617557508011</v>
       </c>
       <c r="AV87">
-        <v>-0.006279200346016119</v>
+        <v>-0.001699960681112707</v>
       </c>
       <c r="AW87">
-        <v>-0.02073488856913514</v>
+        <v>-0.01258667319490442</v>
       </c>
       <c r="AX87">
-        <v>-0.06338953109026735</v>
+        <v>-0.07971978643839883</v>
       </c>
       <c r="AY87">
-        <v>-0.01660472621210447</v>
+        <v>-0.04511569129504447</v>
       </c>
       <c r="AZ87">
-        <v>-0.1132003603875313</v>
+        <v>-0.07504872176536101</v>
       </c>
       <c r="BA87">
-        <v>-0.1325943275125199</v>
+        <v>-0.1381332057268065</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>-0.005723015647307003</v>
-      </c>
       <c r="AV88">
-        <v>-0.006668313452934328</v>
+        <v>0.004096692342412945</v>
       </c>
       <c r="AW88">
-        <v>-0.01969645877826742</v>
+        <v>-0.008640896857387753</v>
       </c>
       <c r="AX88">
-        <v>-0.03593183423244712</v>
+        <v>-0.02560746915049621</v>
       </c>
       <c r="AY88">
-        <v>-0.07582899441066421</v>
+        <v>-0.0952087009629963</v>
       </c>
       <c r="AZ88">
-        <v>-0.07727318671079994</v>
+        <v>-0.1042385137745008</v>
       </c>
       <c r="BA88">
-        <v>-0.03095323262129705</v>
+        <v>-0.03715673564338814</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.0004183839777926366</v>
-      </c>
       <c r="AW89">
-        <v>-0.02146083338530495</v>
+        <v>-0.009264319550597627</v>
       </c>
       <c r="AX89">
-        <v>-0.01933800508300447</v>
+        <v>-0.02180294140081386</v>
       </c>
       <c r="AY89">
-        <v>-0.07821181988480866</v>
+        <v>-0.04651971491318876</v>
       </c>
       <c r="AZ89">
-        <v>-0.01349818112688271</v>
+        <v>-0.02413593512302314</v>
       </c>
       <c r="BA89">
-        <v>-0.0315056670673531</v>
+        <v>-0.03888380201712024</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>-0.02143613747975725</v>
-      </c>
       <c r="AX90">
-        <v>-0.03385117851158346</v>
+        <v>-0.04519308744403873</v>
       </c>
       <c r="AY90">
-        <v>-0.05763917349595568</v>
+        <v>-0.03645861429937034</v>
       </c>
       <c r="AZ90">
-        <v>-0.04058257931879902</v>
+        <v>-0.02834965963774415</v>
       </c>
       <c r="BA90">
-        <v>-0.06709164946558574</v>
+        <v>-0.07411166539440739</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>-0.03712322686456074</v>
-      </c>
       <c r="AY91">
-        <v>-0.05971491060995764</v>
+        <v>-0.05626183947516625</v>
       </c>
       <c r="AZ91">
-        <v>-0.06005480292299195</v>
+        <v>-0.05874482872536609</v>
       </c>
       <c r="BA91">
-        <v>-0.06030241369460054</v>
+        <v>-0.06693458902910257</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>-0.06645333097226587</v>
-      </c>
       <c r="AZ92">
-        <v>-0.04546945474608788</v>
+        <v>-0.05118759969024681</v>
       </c>
       <c r="BA92">
-        <v>-0.04906568340580106</v>
+        <v>-0.05587054962715828</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>-0.04081184980408119</v>
-      </c>
       <c r="BA93">
-        <v>-0.05353206884202923</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>-0.05664975614739323</v>
+        <v>-0.0604604648519208</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_TRDBAL_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>0.8</v>
       </c>
+      <c r="BB2">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>-0.1</v>
       </c>
+      <c r="BB3">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>0.4</v>
       </c>
+      <c r="BB4">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>-1.1</v>
       </c>
+      <c r="BB5">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>-1.7</v>
       </c>
+      <c r="BB6">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>-2.7</v>
       </c>
+      <c r="BB7">
+        <v>-2.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>1.7</v>
       </c>
+      <c r="BB8">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>-0.2</v>
       </c>
+      <c r="BB9">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>1.3</v>
       </c>
+      <c r="BB10">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>-0.8</v>
       </c>
+      <c r="BB11">
+        <v>-0.8</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>0.8</v>
       </c>
+      <c r="BB12">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>0.5</v>
       </c>
+      <c r="BB13">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>0.2</v>
       </c>
+      <c r="BB14">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>0.2</v>
       </c>
+      <c r="BB15">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>-0.7</v>
       </c>
+      <c r="BB16">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>0.2000000000000001</v>
       </c>
+      <c r="BB17">
+        <v>0.2000000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>0.1</v>
       </c>
+      <c r="BB18">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>0.7</v>
       </c>
+      <c r="BB19">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>0.7</v>
       </c>
+      <c r="BB20">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>0.5</v>
       </c>
+      <c r="BB21">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>-1.1</v>
       </c>
+      <c r="BB22">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>0</v>
       </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>0</v>
       </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>-0.6</v>
       </c>
+      <c r="BB25">
+        <v>-0.6</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>0.6</v>
       </c>
+      <c r="BB26">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>-0.1</v>
       </c>
+      <c r="BB27">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>-0.2</v>
       </c>
+      <c r="BB28">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>0.5</v>
       </c>
+      <c r="BB29">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>-0.2</v>
       </c>
+      <c r="BB30">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>-0.1</v>
       </c>
+      <c r="BB31">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>0.6</v>
       </c>
+      <c r="BB32">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>-0.5</v>
       </c>
+      <c r="BB33">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>-0.5</v>
       </c>
+      <c r="BB34">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>0.1</v>
       </c>
+      <c r="BB35">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>0.4</v>
       </c>
+      <c r="BB36">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>-0.4</v>
       </c>
+      <c r="BB37">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>-0.2</v>
       </c>
+      <c r="BB38">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>0.5</v>
       </c>
+      <c r="BB39">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>-0.4</v>
       </c>
+      <c r="BB40">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>0.4</v>
       </c>
+      <c r="BB41">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>0.5</v>
       </c>
+      <c r="BB42">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>0</v>
       </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>-0.4</v>
       </c>
+      <c r="BB44">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>-0.7</v>
       </c>
+      <c r="BB45">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>-0.2</v>
       </c>
+      <c r="BB46">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>0.2</v>
       </c>
+      <c r="BB47">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>-0.5</v>
       </c>
+      <c r="BB48">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>0.8</v>
       </c>
+      <c r="BB49">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>-0.4</v>
       </c>
+      <c r="BB50">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>-1.1</v>
       </c>
+      <c r="BB51">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>-2.4</v>
       </c>
+      <c r="BB52">
+        <v>-2.4</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>3.8</v>
       </c>
+      <c r="BB53">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>0.7</v>
       </c>
+      <c r="BB54">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>-0.9</v>
       </c>
+      <c r="BB55">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>-0.2</v>
       </c>
+      <c r="BB56">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>-0.1</v>
       </c>
+      <c r="BB57">
+        <v>-0.1</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>0.1</v>
       </c>
+      <c r="BB58">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>0</v>
       </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>-0.7</v>
       </c>
+      <c r="BB60">
+        <v>-0.7</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>-0.4</v>
       </c>
+      <c r="BB61">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>0.5</v>
       </c>
+      <c r="BB62">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>0.8</v>
       </c>
+      <c r="BB63">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>-0.4</v>
       </c>
+      <c r="BB64">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>0.4</v>
       </c>
+      <c r="BB65">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>0.3</v>
       </c>
+      <c r="BB66">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>0.1</v>
       </c>
+      <c r="BB67">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>-0.3</v>
       </c>
+      <c r="BB68">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>-1.1</v>
       </c>
+      <c r="BB69">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>-1.1</v>
       </c>
+      <c r="BB70">
+        <v>-1.1</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>0.4</v>
       </c>
+      <c r="BB71">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>-0.7</v>
       </c>
+      <c r="BB72">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>-0.1047373886068518</v>
       </c>
+      <c r="BB73">
+        <v>-0.3</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.1715297545448939</v>
       </c>
+      <c r="BB74">
+        <v>0.1510250314585848</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>-0.08955556109981566</v>
       </c>
+      <c r="BB75">
+        <v>-0.002717645765269422</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>-0.1381332057268065</v>
       </c>
+      <c r="BB76">
+        <v>-0.136875628108055</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>-0.03715673564338814</v>
       </c>
+      <c r="BB77">
+        <v>-0.05727680561923214</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>-0.03888380201712024</v>
       </c>
+      <c r="BB78">
+        <v>-0.02351950773205924</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>-0.07411166539440739</v>
       </c>
+      <c r="BB79">
+        <v>-0.05824996978169377</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>-0.06693458902910257</v>
       </c>
+      <c r="BB80">
+        <v>-0.0640752710254897</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>-0.05587054962715828</v>
       </c>
+      <c r="BB81">
+        <v>-0.05053803152041143</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>-0.0604604648519208</v>
+      </c>
+      <c r="BB82">
+        <v>-0.05090228640356263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>-0.05570051844454853</v>
       </c>
     </row>
   </sheetData>
